--- a/相关资料/01 通讯协议/航安LED灯具通讯协议-20180408.xlsx
+++ b/相关资料/01 通讯协议/航安LED灯具通讯协议-20180408.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="驱动对照表" sheetId="3" r:id="rId1"/>
@@ -1372,10 +1372,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计算电流/1.67</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1409,6 +1405,10 @@
   </si>
   <si>
     <t>计算电流/1.65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算电流/1.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2319,13 +2319,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2352,10 +2370,43 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2377,45 +2428,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2438,18 +2450,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2754,8 +2754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2797,26 +2797,26 @@
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="35"/>
-      <c r="C7" s="150" t="s">
+      <c r="C7" s="156" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="147" t="s">
+      <c r="D7" s="153" t="s">
         <v>205</v>
       </c>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147" t="s">
+      <c r="E7" s="153"/>
+      <c r="F7" s="153" t="s">
         <v>210</v>
       </c>
-      <c r="G7" s="147"/>
-      <c r="H7" s="148" t="s">
+      <c r="G7" s="153"/>
+      <c r="H7" s="154" t="s">
         <v>207</v>
       </c>
-      <c r="I7" s="145" t="s">
+      <c r="I7" s="151" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="151"/>
+      <c r="C8" s="157"/>
       <c r="D8" s="75" t="s">
         <v>111</v>
       </c>
@@ -2829,8 +2829,8 @@
       <c r="G8" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="149"/>
-      <c r="I8" s="146"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="152"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="74" t="s">
@@ -2885,7 +2885,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="95" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H12" s="91" t="s">
         <v>218</v>
@@ -2895,32 +2895,32 @@
       </c>
     </row>
     <row r="13" spans="1:11" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="141" t="s">
+      <c r="C13" s="145" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="143">
+      <c r="D13" s="148">
         <v>5</v>
       </c>
-      <c r="E13" s="143">
+      <c r="E13" s="148">
         <v>6</v>
       </c>
       <c r="F13" s="89">
         <v>1</v>
       </c>
       <c r="G13" s="95" t="s">
+        <v>342</v>
+      </c>
+      <c r="H13" s="91" t="s">
         <v>343</v>
       </c>
-      <c r="H13" s="91" t="s">
-        <v>344</v>
-      </c>
       <c r="I13" s="137" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="135" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="152"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="153"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="149"/>
       <c r="F14" s="89">
         <v>1</v>
       </c>
@@ -2931,24 +2931,24 @@
         <v>211</v>
       </c>
       <c r="I14" s="137" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="141" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="147"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="142">
+        <v>1</v>
+      </c>
+      <c r="G15" s="142">
+        <v>2</v>
+      </c>
+      <c r="H15" s="143" t="s">
+        <v>211</v>
+      </c>
+      <c r="I15" s="144" t="s">
         <v>345</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="181" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="142"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="182">
-        <v>1</v>
-      </c>
-      <c r="G15" s="182">
-        <v>2</v>
-      </c>
-      <c r="H15" s="183" t="s">
-        <v>211</v>
-      </c>
-      <c r="I15" s="184" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2966,7 +2966,7 @@
       <c r="H16" s="90"/>
       <c r="I16" s="79"/>
       <c r="K16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2985,13 +2985,13 @@
       <c r="I17" s="79"/>
     </row>
     <row r="18" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="141" t="s">
+      <c r="C18" s="145" t="s">
         <v>174</v>
       </c>
-      <c r="D18" s="143">
+      <c r="D18" s="148">
         <v>8</v>
       </c>
-      <c r="E18" s="143">
+      <c r="E18" s="148">
         <v>0</v>
       </c>
       <c r="F18" s="77">
@@ -3008,9 +3008,9 @@
       </c>
     </row>
     <row r="19" spans="3:9" s="111" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="142"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="144"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
       <c r="F19" s="120">
         <v>1</v>
       </c>
@@ -3097,13 +3097,13 @@
       <c r="I23" s="79"/>
     </row>
     <row r="24" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="141" t="s">
+      <c r="C24" s="145" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="143">
+      <c r="D24" s="148">
         <v>12</v>
       </c>
-      <c r="E24" s="143">
+      <c r="E24" s="148">
         <v>0</v>
       </c>
       <c r="F24" s="77">
@@ -3120,9 +3120,9 @@
       </c>
     </row>
     <row r="25" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="142"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="144"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
       <c r="F25" s="88">
         <v>1</v>
       </c>
@@ -3214,20 +3214,20 @@
     </row>
     <row r="41" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="138" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="139" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="140" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3235,6 +3235,12 @@
     <row r="46" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="E13:E15"/>
@@ -3243,12 +3249,6 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3749,12 +3749,12 @@
       <c r="L14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="165" t="s">
+      <c r="M14" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="165"/>
-      <c r="O14" s="165"/>
-      <c r="P14" s="165"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="161"/>
+      <c r="P14" s="161"/>
       <c r="Q14" s="27" t="s">
         <v>284</v>
       </c>
@@ -3796,12 +3796,12 @@
       <c r="L15" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="M15" s="165" t="s">
+      <c r="M15" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="N15" s="165"/>
-      <c r="O15" s="165"/>
-      <c r="P15" s="165"/>
+      <c r="N15" s="161"/>
+      <c r="O15" s="161"/>
+      <c r="P15" s="161"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
     </row>
@@ -4044,12 +4044,12 @@
       <c r="C23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="165" t="s">
+      <c r="D23" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="165"/>
-      <c r="F23" s="165"/>
-      <c r="G23" s="165"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="161"/>
       <c r="H23" s="112" t="s">
         <v>284</v>
       </c>
@@ -4091,12 +4091,12 @@
       <c r="C24" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="166" t="s">
+      <c r="D24" s="162" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="168"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="164"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -4349,12 +4349,12 @@
       <c r="C32" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="161" t="s">
+      <c r="D32" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="167"/>
       <c r="H32" s="112" t="s">
         <v>284</v>
       </c>
@@ -4396,12 +4396,12 @@
       <c r="C33" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="162" t="s">
+      <c r="D33" s="168" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="163"/>
-      <c r="F33" s="163"/>
-      <c r="G33" s="164"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="169"/>
+      <c r="G33" s="170"/>
       <c r="H33" s="66"/>
       <c r="I33" s="66" t="s">
         <v>280</v>
@@ -4697,12 +4697,12 @@
       <c r="K41" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L41" s="166" t="s">
+      <c r="L41" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="M41" s="167"/>
-      <c r="N41" s="167"/>
-      <c r="O41" s="168"/>
+      <c r="M41" s="163"/>
+      <c r="N41" s="163"/>
+      <c r="O41" s="164"/>
       <c r="P41" s="30" t="s">
         <v>141</v>
       </c>
@@ -4744,12 +4744,12 @@
       <c r="K42" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="L42" s="166" t="s">
+      <c r="L42" s="162" t="s">
         <v>95</v>
       </c>
-      <c r="M42" s="167"/>
-      <c r="N42" s="167"/>
-      <c r="O42" s="168"/>
+      <c r="M42" s="163"/>
+      <c r="N42" s="163"/>
+      <c r="O42" s="164"/>
       <c r="P42" s="30" t="s">
         <v>132</v>
       </c>
@@ -5040,12 +5040,12 @@
       <c r="L50" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M50" s="165" t="s">
+      <c r="M50" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="N50" s="165"/>
-      <c r="O50" s="165"/>
-      <c r="P50" s="165"/>
+      <c r="N50" s="161"/>
+      <c r="O50" s="161"/>
+      <c r="P50" s="161"/>
       <c r="Q50" s="32" t="s">
         <v>140</v>
       </c>
@@ -5087,12 +5087,12 @@
       <c r="L51" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="M51" s="165" t="s">
+      <c r="M51" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="N51" s="165"/>
-      <c r="O51" s="165"/>
-      <c r="P51" s="165"/>
+      <c r="N51" s="161"/>
+      <c r="O51" s="161"/>
+      <c r="P51" s="161"/>
       <c r="Q51" s="32" t="s">
         <v>90</v>
       </c>
@@ -5338,12 +5338,12 @@
       <c r="C59" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="165" t="s">
+      <c r="D59" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="E59" s="165"/>
-      <c r="F59" s="165"/>
-      <c r="G59" s="165"/>
+      <c r="E59" s="161"/>
+      <c r="F59" s="161"/>
+      <c r="G59" s="161"/>
       <c r="H59" s="32" t="s">
         <v>147</v>
       </c>
@@ -5385,12 +5385,12 @@
       <c r="C60" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="D60" s="166" t="s">
+      <c r="D60" s="162" t="s">
         <v>105</v>
       </c>
-      <c r="E60" s="167"/>
-      <c r="F60" s="167"/>
-      <c r="G60" s="168"/>
+      <c r="E60" s="163"/>
+      <c r="F60" s="163"/>
+      <c r="G60" s="164"/>
       <c r="H60" s="32" t="s">
         <v>158</v>
       </c>
@@ -5647,12 +5647,12 @@
       <c r="C68" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="161" t="s">
+      <c r="D68" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="E68" s="161"/>
-      <c r="F68" s="161"/>
-      <c r="G68" s="161"/>
+      <c r="E68" s="167"/>
+      <c r="F68" s="167"/>
+      <c r="G68" s="167"/>
       <c r="H68" s="23" t="s">
         <v>196</v>
       </c>
@@ -5694,12 +5694,12 @@
       <c r="C69" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D69" s="162" t="s">
+      <c r="D69" s="168" t="s">
         <v>95</v>
       </c>
-      <c r="E69" s="163"/>
-      <c r="F69" s="163"/>
-      <c r="G69" s="164"/>
+      <c r="E69" s="169"/>
+      <c r="F69" s="169"/>
+      <c r="G69" s="170"/>
       <c r="H69" s="23" t="s">
         <v>88</v>
       </c>
@@ -5972,12 +5972,12 @@
       <c r="C78" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="161" t="s">
+      <c r="D78" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="E78" s="161"/>
-      <c r="F78" s="161"/>
-      <c r="G78" s="161"/>
+      <c r="E78" s="167"/>
+      <c r="F78" s="167"/>
+      <c r="G78" s="167"/>
       <c r="H78" s="86" t="s">
         <v>196</v>
       </c>
@@ -6019,12 +6019,12 @@
       <c r="C79" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="D79" s="162" t="s">
+      <c r="D79" s="168" t="s">
         <v>95</v>
       </c>
-      <c r="E79" s="163"/>
-      <c r="F79" s="163"/>
-      <c r="G79" s="164"/>
+      <c r="E79" s="169"/>
+      <c r="F79" s="169"/>
+      <c r="G79" s="170"/>
       <c r="H79" s="86" t="s">
         <v>88</v>
       </c>
@@ -6296,12 +6296,12 @@
       <c r="C87" s="116" t="s">
         <v>250</v>
       </c>
-      <c r="D87" s="154" t="s">
+      <c r="D87" s="171" t="s">
         <v>251</v>
       </c>
-      <c r="E87" s="154"/>
-      <c r="F87" s="154"/>
-      <c r="G87" s="154"/>
+      <c r="E87" s="171"/>
+      <c r="F87" s="171"/>
+      <c r="G87" s="171"/>
       <c r="H87" s="116" t="s">
         <v>252</v>
       </c>
@@ -6343,12 +6343,12 @@
       <c r="C88" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="D88" s="155" t="s">
+      <c r="D88" s="172" t="s">
         <v>249</v>
       </c>
-      <c r="E88" s="156"/>
-      <c r="F88" s="156"/>
-      <c r="G88" s="157"/>
+      <c r="E88" s="173"/>
+      <c r="F88" s="173"/>
+      <c r="G88" s="174"/>
       <c r="H88" s="116"/>
       <c r="I88" s="116"/>
       <c r="J88" s="116"/>
@@ -7034,23 +7034,23 @@
       <c r="G111" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H111" s="172" t="s">
+      <c r="H111" s="165" t="s">
         <v>65</v>
       </c>
-      <c r="I111" s="172"/>
-      <c r="J111" s="172"/>
-      <c r="K111" s="172"/>
-      <c r="L111" s="172" t="s">
+      <c r="I111" s="165"/>
+      <c r="J111" s="165"/>
+      <c r="K111" s="165"/>
+      <c r="L111" s="165" t="s">
         <v>66</v>
       </c>
-      <c r="M111" s="172"/>
-      <c r="N111" s="172"/>
-      <c r="O111" s="172"/>
-      <c r="P111" s="172" t="s">
+      <c r="M111" s="165"/>
+      <c r="N111" s="165"/>
+      <c r="O111" s="165"/>
+      <c r="P111" s="165" t="s">
         <v>67</v>
       </c>
-      <c r="Q111" s="172"/>
-      <c r="R111" s="172"/>
+      <c r="Q111" s="165"/>
+      <c r="R111" s="165"/>
     </row>
     <row r="112" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C112" s="15"/>
@@ -7113,12 +7113,12 @@
       <c r="C114" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="D114" s="173" t="s">
+      <c r="D114" s="166" t="s">
         <v>69</v>
       </c>
-      <c r="E114" s="173"/>
-      <c r="F114" s="173"/>
-      <c r="G114" s="173"/>
+      <c r="E114" s="166"/>
+      <c r="F114" s="166"/>
+      <c r="G114" s="166"/>
       <c r="H114" s="39" t="s">
         <v>70</v>
       </c>
@@ -7271,23 +7271,23 @@
       <c r="G120" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="H120" s="172" t="s">
+      <c r="H120" s="165" t="s">
         <v>65</v>
       </c>
-      <c r="I120" s="172"/>
-      <c r="J120" s="172"/>
-      <c r="K120" s="172"/>
-      <c r="L120" s="172" t="s">
+      <c r="I120" s="165"/>
+      <c r="J120" s="165"/>
+      <c r="K120" s="165"/>
+      <c r="L120" s="165" t="s">
         <v>154</v>
       </c>
-      <c r="M120" s="172"/>
-      <c r="N120" s="172"/>
-      <c r="O120" s="172"/>
-      <c r="P120" s="172" t="s">
+      <c r="M120" s="165"/>
+      <c r="N120" s="165"/>
+      <c r="O120" s="165"/>
+      <c r="P120" s="165" t="s">
         <v>67</v>
       </c>
-      <c r="Q120" s="172"/>
-      <c r="R120" s="172"/>
+      <c r="Q120" s="165"/>
+      <c r="R120" s="165"/>
     </row>
     <row r="121" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C121" s="15"/>
@@ -7349,12 +7349,12 @@
       <c r="C123" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="D123" s="173" t="s">
+      <c r="D123" s="166" t="s">
         <v>69</v>
       </c>
-      <c r="E123" s="173"/>
-      <c r="F123" s="173"/>
-      <c r="G123" s="173"/>
+      <c r="E123" s="166"/>
+      <c r="F123" s="166"/>
+      <c r="G123" s="166"/>
       <c r="H123" s="36" t="s">
         <v>70</v>
       </c>
@@ -7507,18 +7507,18 @@
       <c r="G129" s="105" t="s">
         <v>259</v>
       </c>
-      <c r="H129" s="158" t="s">
+      <c r="H129" s="175" t="s">
         <v>260</v>
       </c>
-      <c r="I129" s="158"/>
-      <c r="J129" s="158"/>
-      <c r="K129" s="158"/>
-      <c r="L129" s="158" t="s">
+      <c r="I129" s="175"/>
+      <c r="J129" s="175"/>
+      <c r="K129" s="175"/>
+      <c r="L129" s="175" t="s">
         <v>261</v>
       </c>
-      <c r="M129" s="158"/>
-      <c r="N129" s="158"/>
-      <c r="O129" s="158"/>
+      <c r="M129" s="175"/>
+      <c r="N129" s="175"/>
+      <c r="O129" s="175"/>
       <c r="P129" s="103" t="s">
         <v>262</v>
       </c>
@@ -7587,10 +7587,10 @@
     </row>
     <row r="132" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B132" s="107"/>
-      <c r="C132" s="159" t="s">
+      <c r="C132" s="176" t="s">
         <v>265</v>
       </c>
-      <c r="D132" s="160"/>
+      <c r="D132" s="177"/>
       <c r="E132" s="103" t="s">
         <v>266</v>
       </c>
@@ -7933,18 +7933,18 @@
       <c r="F144" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="G144" s="169" t="s">
+      <c r="G144" s="158" t="s">
         <v>198</v>
       </c>
-      <c r="H144" s="170"/>
-      <c r="I144" s="170"/>
-      <c r="J144" s="171"/>
-      <c r="K144" s="169" t="s">
+      <c r="H144" s="159"/>
+      <c r="I144" s="159"/>
+      <c r="J144" s="160"/>
+      <c r="K144" s="158" t="s">
         <v>204</v>
       </c>
-      <c r="L144" s="170"/>
-      <c r="M144" s="170"/>
-      <c r="N144" s="171"/>
+      <c r="L144" s="159"/>
+      <c r="M144" s="159"/>
+      <c r="N144" s="160"/>
       <c r="O144" s="62" t="s">
         <v>199</v>
       </c>
@@ -7966,6 +7966,21 @@
     <row r="150" s="28" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:O129"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
     <mergeCell ref="G144:J144"/>
     <mergeCell ref="K144:N144"/>
     <mergeCell ref="D23:G23"/>
@@ -7982,21 +7997,6 @@
     <mergeCell ref="L111:O111"/>
     <mergeCell ref="P111:R111"/>
     <mergeCell ref="D68:G68"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H129:K129"/>
-    <mergeCell ref="L129:O129"/>
-    <mergeCell ref="C132:D132"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8008,7 +8008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -8024,27 +8024,27 @@
       <c r="B2" s="129" t="s">
         <v>285</v>
       </c>
-      <c r="C2" s="177" t="s">
+      <c r="C2" s="181" t="s">
         <v>286</v>
       </c>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
       <c r="H2" s="130" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="174" t="s">
+      <c r="B3" s="178" t="s">
         <v>307</v>
       </c>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="176"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="180"/>
     </row>
     <row r="4" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="124" t="s">
@@ -8277,15 +8277,15 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="178" t="s">
+      <c r="B14" s="182" t="s">
         <v>308</v>
       </c>
-      <c r="C14" s="179"/>
-      <c r="D14" s="179"/>
-      <c r="E14" s="179"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="179"/>
-      <c r="H14" s="180"/>
+      <c r="C14" s="183"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="183"/>
+      <c r="F14" s="183"/>
+      <c r="G14" s="183"/>
+      <c r="H14" s="184"/>
     </row>
     <row r="15" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="124" t="s">
@@ -8353,15 +8353,15 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="178" t="s">
+      <c r="B18" s="182" t="s">
         <v>309</v>
       </c>
-      <c r="C18" s="179"/>
-      <c r="D18" s="179"/>
-      <c r="E18" s="179"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="179"/>
-      <c r="H18" s="180"/>
+      <c r="C18" s="183"/>
+      <c r="D18" s="183"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="183"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="184"/>
     </row>
     <row r="19" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="126" t="s">
@@ -8490,15 +8490,15 @@
       </c>
     </row>
     <row r="25" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="174" t="s">
+      <c r="B25" s="178" t="s">
         <v>315</v>
       </c>
-      <c r="C25" s="175"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="176"/>
+      <c r="C25" s="179"/>
+      <c r="D25" s="179"/>
+      <c r="E25" s="179"/>
+      <c r="F25" s="179"/>
+      <c r="G25" s="179"/>
+      <c r="H25" s="180"/>
     </row>
     <row r="26" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="124" t="s">

--- a/相关资料/01 通讯协议/航安LED灯具通讯协议-20180408.xlsx
+++ b/相关资料/01 通讯协议/航安LED灯具通讯协议-20180408.xlsx
@@ -1352,63 +1352,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>较复杂，详看说明2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                   当计算电流=0.4，真实电流=0.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      黄光（计算电流=0.7），真实电流=0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      红光（计算电流=0.6），真实电流=0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      当计算电流=0.4，真实电流=0.45</t>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算电流/1.96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算电流/1.65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算电流/1.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>计算电流/</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1.72</t>
+      <t>1.72*0.75</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>较复杂，详看说明2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                   当计算电流=0.4，真实电流=0.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      黄光（计算电流=0.7），真实电流=0.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      红光（计算电流=0.6），真实电流=0.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      当计算电流=0.4，真实电流=0.45</t>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算电流/1.96</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算电流/1.65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算电流/1.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2184,9 +2185,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2334,19 +2332,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2370,6 +2368,51 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2379,55 +2422,10 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2450,6 +2448,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2755,7 +2756,7 @@
   <dimension ref="A2:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2797,26 +2798,26 @@
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="35"/>
-      <c r="C7" s="156" t="s">
+      <c r="C7" s="155" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="153" t="s">
+      <c r="D7" s="152" t="s">
         <v>205</v>
       </c>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153" t="s">
+      <c r="E7" s="152"/>
+      <c r="F7" s="152" t="s">
         <v>210</v>
       </c>
-      <c r="G7" s="153"/>
-      <c r="H7" s="154" t="s">
+      <c r="G7" s="152"/>
+      <c r="H7" s="153" t="s">
         <v>207</v>
       </c>
-      <c r="I7" s="151" t="s">
+      <c r="I7" s="150" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="157"/>
+      <c r="C8" s="156"/>
       <c r="D8" s="75" t="s">
         <v>111</v>
       </c>
@@ -2829,8 +2830,8 @@
       <c r="G8" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="155"/>
-      <c r="I8" s="152"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="151"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="74" t="s">
@@ -2872,53 +2873,53 @@
       <c r="I11" s="79"/>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="133" t="s">
+      <c r="C12" s="132" t="s">
         <v>177</v>
       </c>
-      <c r="D12" s="134">
+      <c r="D12" s="133">
         <v>4</v>
       </c>
-      <c r="E12" s="134">
+      <c r="E12" s="133">
         <v>5</v>
       </c>
       <c r="F12" s="89">
         <v>1</v>
       </c>
       <c r="G12" s="95" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H12" s="91" t="s">
         <v>218</v>
       </c>
-      <c r="I12" s="96" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="145" t="s">
+      <c r="I12" s="184" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="139" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="144" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="148">
+      <c r="D13" s="146">
         <v>5</v>
       </c>
-      <c r="E13" s="148">
+      <c r="E13" s="146">
         <v>6</v>
       </c>
       <c r="F13" s="89">
         <v>1</v>
       </c>
       <c r="G13" s="95" t="s">
+        <v>341</v>
+      </c>
+      <c r="H13" s="91" t="s">
         <v>342</v>
       </c>
-      <c r="H13" s="91" t="s">
-        <v>343</v>
-      </c>
-      <c r="I13" s="137" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="135" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="146"/>
+      <c r="I13" s="136" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="134" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="148"/>
       <c r="D14" s="149"/>
       <c r="E14" s="149"/>
       <c r="F14" s="89">
@@ -2927,28 +2928,28 @@
       <c r="G14" s="89">
         <v>3</v>
       </c>
-      <c r="H14" s="136" t="s">
+      <c r="H14" s="135" t="s">
         <v>211</v>
       </c>
-      <c r="I14" s="137" t="s">
+      <c r="I14" s="136" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="145"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="141">
+        <v>1</v>
+      </c>
+      <c r="G15" s="141">
+        <v>2</v>
+      </c>
+      <c r="H15" s="142" t="s">
+        <v>211</v>
+      </c>
+      <c r="I15" s="143" t="s">
         <v>344</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="141" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="147"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="142">
-        <v>1</v>
-      </c>
-      <c r="G15" s="142">
-        <v>2</v>
-      </c>
-      <c r="H15" s="143" t="s">
-        <v>211</v>
-      </c>
-      <c r="I15" s="144" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2966,7 +2967,7 @@
       <c r="H16" s="90"/>
       <c r="I16" s="79"/>
       <c r="K16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2985,13 +2986,13 @@
       <c r="I17" s="79"/>
     </row>
     <row r="18" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="145" t="s">
+      <c r="C18" s="144" t="s">
         <v>174</v>
       </c>
-      <c r="D18" s="148">
+      <c r="D18" s="146">
         <v>8</v>
       </c>
-      <c r="E18" s="148">
+      <c r="E18" s="146">
         <v>0</v>
       </c>
       <c r="F18" s="77">
@@ -3007,20 +3008,20 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="3:9" s="111" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="147"/>
-      <c r="D19" s="150"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="120">
+    <row r="19" spans="3:9" s="110" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="145"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="119">
         <v>1</v>
       </c>
-      <c r="G19" s="120">
+      <c r="G19" s="119">
         <v>4</v>
       </c>
-      <c r="H19" s="121" t="s">
+      <c r="H19" s="120" t="s">
         <v>281</v>
       </c>
-      <c r="I19" s="110" t="s">
+      <c r="I19" s="109" t="s">
         <v>282</v>
       </c>
     </row>
@@ -3047,26 +3048,26 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="3:9" s="111" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="108" t="s">
+    <row r="21" spans="3:9" s="110" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="107" t="s">
         <v>227</v>
       </c>
-      <c r="D21" s="109">
+      <c r="D21" s="108">
         <v>9</v>
       </c>
-      <c r="E21" s="109">
+      <c r="E21" s="108">
         <v>9</v>
       </c>
-      <c r="F21" s="109">
+      <c r="F21" s="108">
         <v>2</v>
       </c>
-      <c r="G21" s="109">
+      <c r="G21" s="108">
         <v>0</v>
       </c>
-      <c r="H21" s="109" t="s">
+      <c r="H21" s="108" t="s">
         <v>211</v>
       </c>
-      <c r="I21" s="132" t="s">
+      <c r="I21" s="131" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3097,13 +3098,13 @@
       <c r="I23" s="79"/>
     </row>
     <row r="24" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="145" t="s">
+      <c r="C24" s="144" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="148">
+      <c r="D24" s="146">
         <v>12</v>
       </c>
-      <c r="E24" s="148">
+      <c r="E24" s="146">
         <v>0</v>
       </c>
       <c r="F24" s="77">
@@ -3120,9 +3121,9 @@
       </c>
     </row>
     <row r="25" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="147"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="147"/>
       <c r="F25" s="88">
         <v>1</v>
       </c>
@@ -3133,7 +3134,7 @@
         <v>208</v>
       </c>
       <c r="I25" s="93" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -3213,21 +3214,21 @@
       </c>
     </row>
     <row r="41" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C41" s="138" t="s">
+      <c r="C41" s="137" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C42" s="138" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="42" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C42" s="139" t="s">
+    <row r="43" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="139" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="43" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C43" s="140" t="s">
-        <v>341</v>
-      </c>
       <c r="D43" s="40" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3235,12 +3236,6 @@
     <row r="46" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="E13:E15"/>
@@ -3249,6 +3244,12 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3749,12 +3750,12 @@
       <c r="L14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="161" t="s">
+      <c r="M14" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="161"/>
-      <c r="O14" s="161"/>
-      <c r="P14" s="161"/>
+      <c r="N14" s="168"/>
+      <c r="O14" s="168"/>
+      <c r="P14" s="168"/>
       <c r="Q14" s="27" t="s">
         <v>284</v>
       </c>
@@ -3796,12 +3797,12 @@
       <c r="L15" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="M15" s="161" t="s">
+      <c r="M15" s="168" t="s">
         <v>95</v>
       </c>
-      <c r="N15" s="161"/>
-      <c r="O15" s="161"/>
-      <c r="P15" s="161"/>
+      <c r="N15" s="168"/>
+      <c r="O15" s="168"/>
+      <c r="P15" s="168"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
     </row>
@@ -4044,13 +4045,13 @@
       <c r="C23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="161" t="s">
+      <c r="D23" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="112" t="s">
+      <c r="E23" s="168"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="111" t="s">
         <v>284</v>
       </c>
       <c r="I23" s="9" t="s">
@@ -4091,12 +4092,12 @@
       <c r="C24" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="162" t="s">
+      <c r="D24" s="169" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="163"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="164"/>
+      <c r="E24" s="170"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="171"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -4109,7 +4110,7 @@
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
     </row>
-    <row r="25" spans="2:18" s="100" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="2:18" s="99" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="50" t="s">
         <v>122</v>
@@ -4135,52 +4136,52 @@
       <c r="B27" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="C27" s="112">
+      <c r="C27" s="111">
         <v>0</v>
       </c>
-      <c r="D27" s="112">
+      <c r="D27" s="111">
         <v>1</v>
       </c>
-      <c r="E27" s="112">
+      <c r="E27" s="111">
         <v>2</v>
       </c>
-      <c r="F27" s="112">
+      <c r="F27" s="111">
         <v>3</v>
       </c>
-      <c r="G27" s="112">
+      <c r="G27" s="111">
         <v>4</v>
       </c>
-      <c r="H27" s="112">
+      <c r="H27" s="111">
         <v>5</v>
       </c>
-      <c r="I27" s="112">
+      <c r="I27" s="111">
         <v>6</v>
       </c>
-      <c r="J27" s="112">
+      <c r="J27" s="111">
         <v>7</v>
       </c>
-      <c r="K27" s="112">
+      <c r="K27" s="111">
         <v>8</v>
       </c>
-      <c r="L27" s="112">
+      <c r="L27" s="111">
         <v>9</v>
       </c>
-      <c r="M27" s="112">
+      <c r="M27" s="111">
         <v>10</v>
       </c>
-      <c r="N27" s="112">
+      <c r="N27" s="111">
         <v>11</v>
       </c>
-      <c r="O27" s="112">
+      <c r="O27" s="111">
         <v>12</v>
       </c>
-      <c r="P27" s="112">
+      <c r="P27" s="111">
         <v>13</v>
       </c>
-      <c r="Q27" s="112">
+      <c r="Q27" s="111">
         <v>14</v>
       </c>
-      <c r="R27" s="112">
+      <c r="R27" s="111">
         <v>15</v>
       </c>
     </row>
@@ -4188,7 +4189,7 @@
       <c r="C28" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="112" t="s">
+      <c r="D28" s="111" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="66" t="s">
@@ -4197,40 +4198,40 @@
       <c r="F28" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="112" t="s">
+      <c r="G28" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="112" t="s">
+      <c r="H28" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="112" t="s">
+      <c r="I28" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="J28" s="112" t="s">
+      <c r="J28" s="111" t="s">
         <v>141</v>
       </c>
-      <c r="K28" s="112" t="s">
+      <c r="K28" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="112" t="s">
+      <c r="L28" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="M28" s="112" t="s">
+      <c r="M28" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="N28" s="112" t="s">
+      <c r="N28" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="O28" s="112" t="s">
+      <c r="O28" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="P28" s="112" t="s">
+      <c r="P28" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="Q28" s="112" t="s">
+      <c r="Q28" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="R28" s="112" t="s">
+      <c r="R28" s="111" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4238,154 +4239,154 @@
       <c r="B29" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112" t="s">
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="I29" s="112" t="s">
+      <c r="I29" s="111" t="s">
         <v>86</v>
       </c>
-      <c r="J29" s="112" t="s">
+      <c r="J29" s="111" t="s">
         <v>275</v>
       </c>
-      <c r="K29" s="112" t="s">
+      <c r="K29" s="111" t="s">
         <v>90</v>
       </c>
-      <c r="L29" s="112" t="s">
+      <c r="L29" s="111" t="s">
         <v>92</v>
       </c>
-      <c r="M29" s="112" t="s">
+      <c r="M29" s="111" t="s">
         <v>92</v>
       </c>
-      <c r="N29" s="112" t="s">
+      <c r="N29" s="111" t="s">
         <v>93</v>
       </c>
-      <c r="O29" s="112" t="s">
+      <c r="O29" s="111" t="s">
         <v>93</v>
       </c>
-      <c r="P29" s="112" t="s">
+      <c r="P29" s="111" t="s">
         <v>88</v>
       </c>
-      <c r="Q29" s="112" t="s">
+      <c r="Q29" s="111" t="s">
         <v>88</v>
       </c>
-      <c r="R29" s="112" t="s">
+      <c r="R29" s="111" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="30" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="113"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="113"/>
-      <c r="L30" s="113"/>
-      <c r="M30" s="113"/>
-      <c r="N30" s="113"/>
-      <c r="O30" s="113"/>
-      <c r="P30" s="113"/>
-      <c r="Q30" s="113"/>
-      <c r="R30" s="113"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="112"/>
+      <c r="H30" s="112"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="112"/>
+      <c r="K30" s="112"/>
+      <c r="L30" s="112"/>
+      <c r="M30" s="112"/>
+      <c r="N30" s="112"/>
+      <c r="O30" s="112"/>
+      <c r="P30" s="112"/>
+      <c r="Q30" s="112"/>
+      <c r="R30" s="112"/>
     </row>
     <row r="31" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="112">
+      <c r="C31" s="111">
         <v>16</v>
       </c>
-      <c r="D31" s="112">
+      <c r="D31" s="111">
         <v>17</v>
       </c>
-      <c r="E31" s="112">
+      <c r="E31" s="111">
         <v>18</v>
       </c>
-      <c r="F31" s="112">
+      <c r="F31" s="111">
         <v>19</v>
       </c>
-      <c r="G31" s="112">
+      <c r="G31" s="111">
         <v>20</v>
       </c>
-      <c r="H31" s="112">
+      <c r="H31" s="111">
         <v>21</v>
       </c>
-      <c r="I31" s="112">
+      <c r="I31" s="111">
         <v>22</v>
       </c>
-      <c r="J31" s="112">
+      <c r="J31" s="111">
         <v>23</v>
       </c>
-      <c r="K31" s="112">
+      <c r="K31" s="111">
         <v>24</v>
       </c>
-      <c r="L31" s="112">
+      <c r="L31" s="111">
         <v>25</v>
       </c>
-      <c r="M31" s="112">
+      <c r="M31" s="111">
         <v>26</v>
       </c>
-      <c r="N31" s="112">
+      <c r="N31" s="111">
         <v>27</v>
       </c>
-      <c r="O31" s="112">
+      <c r="O31" s="111">
         <v>28</v>
       </c>
-      <c r="P31" s="112">
+      <c r="P31" s="111">
         <v>29</v>
       </c>
-      <c r="Q31" s="112">
+      <c r="Q31" s="111">
         <v>30</v>
       </c>
-      <c r="R31" s="112">
+      <c r="R31" s="111">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C32" s="112" t="s">
+      <c r="C32" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="167" t="s">
+      <c r="D32" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="112" t="s">
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
+      <c r="H32" s="111" t="s">
         <v>284</v>
       </c>
       <c r="I32" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="J32" s="112" t="s">
+      <c r="J32" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="K32" s="112" t="s">
+      <c r="K32" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="112" t="s">
+      <c r="L32" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="M32" s="112" t="s">
+      <c r="M32" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="N32" s="112" t="s">
+      <c r="N32" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="O32" s="112" t="s">
+      <c r="O32" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="P32" s="112" t="s">
+      <c r="P32" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="Q32" s="112" t="s">
+      <c r="Q32" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="R32" s="112" t="s">
+      <c r="R32" s="111" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4393,46 +4394,46 @@
       <c r="B33" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="112" t="s">
+      <c r="C33" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="168" t="s">
+      <c r="D33" s="165" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="169"/>
-      <c r="F33" s="169"/>
-      <c r="G33" s="170"/>
+      <c r="E33" s="166"/>
+      <c r="F33" s="166"/>
+      <c r="G33" s="167"/>
       <c r="H33" s="66"/>
       <c r="I33" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="112"/>
-      <c r="M33" s="112"/>
-      <c r="N33" s="112"/>
-      <c r="O33" s="112"/>
-      <c r="P33" s="112"/>
-      <c r="Q33" s="112"/>
-      <c r="R33" s="112"/>
-    </row>
-    <row r="34" spans="2:18" s="101" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="102"/>
-      <c r="K34" s="102"/>
-      <c r="L34" s="102"/>
-      <c r="M34" s="102"/>
-      <c r="N34" s="102"/>
-      <c r="O34" s="102"/>
-      <c r="P34" s="102"/>
-      <c r="Q34" s="102"/>
-      <c r="R34" s="102"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="111"/>
+      <c r="O33" s="111"/>
+      <c r="P33" s="111"/>
+      <c r="Q33" s="111"/>
+      <c r="R33" s="111"/>
+    </row>
+    <row r="34" spans="2:18" s="100" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="101"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="101"/>
+      <c r="K34" s="101"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="101"/>
+      <c r="N34" s="101"/>
+      <c r="O34" s="101"/>
+      <c r="P34" s="101"/>
+      <c r="Q34" s="101"/>
+      <c r="R34" s="101"/>
     </row>
     <row r="35" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="50" t="s">
@@ -4697,12 +4698,12 @@
       <c r="K41" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L41" s="162" t="s">
+      <c r="L41" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="M41" s="163"/>
-      <c r="N41" s="163"/>
-      <c r="O41" s="164"/>
+      <c r="M41" s="170"/>
+      <c r="N41" s="170"/>
+      <c r="O41" s="171"/>
       <c r="P41" s="30" t="s">
         <v>141</v>
       </c>
@@ -4744,12 +4745,12 @@
       <c r="K42" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="L42" s="162" t="s">
+      <c r="L42" s="169" t="s">
         <v>95</v>
       </c>
-      <c r="M42" s="163"/>
-      <c r="N42" s="163"/>
-      <c r="O42" s="164"/>
+      <c r="M42" s="170"/>
+      <c r="N42" s="170"/>
+      <c r="O42" s="171"/>
       <c r="P42" s="30" t="s">
         <v>132</v>
       </c>
@@ -5040,12 +5041,12 @@
       <c r="L50" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M50" s="161" t="s">
+      <c r="M50" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="N50" s="161"/>
-      <c r="O50" s="161"/>
-      <c r="P50" s="161"/>
+      <c r="N50" s="168"/>
+      <c r="O50" s="168"/>
+      <c r="P50" s="168"/>
       <c r="Q50" s="32" t="s">
         <v>140</v>
       </c>
@@ -5087,12 +5088,12 @@
       <c r="L51" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="M51" s="161" t="s">
+      <c r="M51" s="168" t="s">
         <v>95</v>
       </c>
-      <c r="N51" s="161"/>
-      <c r="O51" s="161"/>
-      <c r="P51" s="161"/>
+      <c r="N51" s="168"/>
+      <c r="O51" s="168"/>
+      <c r="P51" s="168"/>
       <c r="Q51" s="32" t="s">
         <v>90</v>
       </c>
@@ -5338,12 +5339,12 @@
       <c r="C59" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="161" t="s">
+      <c r="D59" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="E59" s="161"/>
-      <c r="F59" s="161"/>
-      <c r="G59" s="161"/>
+      <c r="E59" s="168"/>
+      <c r="F59" s="168"/>
+      <c r="G59" s="168"/>
       <c r="H59" s="32" t="s">
         <v>147</v>
       </c>
@@ -5385,12 +5386,12 @@
       <c r="C60" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="D60" s="162" t="s">
+      <c r="D60" s="169" t="s">
         <v>105</v>
       </c>
-      <c r="E60" s="163"/>
-      <c r="F60" s="163"/>
-      <c r="G60" s="164"/>
+      <c r="E60" s="170"/>
+      <c r="F60" s="170"/>
+      <c r="G60" s="171"/>
       <c r="H60" s="32" t="s">
         <v>158</v>
       </c>
@@ -5647,12 +5648,12 @@
       <c r="C68" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="167" t="s">
+      <c r="D68" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="E68" s="167"/>
-      <c r="F68" s="167"/>
-      <c r="G68" s="167"/>
+      <c r="E68" s="164"/>
+      <c r="F68" s="164"/>
+      <c r="G68" s="164"/>
       <c r="H68" s="23" t="s">
         <v>196</v>
       </c>
@@ -5694,12 +5695,12 @@
       <c r="C69" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D69" s="168" t="s">
+      <c r="D69" s="165" t="s">
         <v>95</v>
       </c>
-      <c r="E69" s="169"/>
-      <c r="F69" s="169"/>
-      <c r="G69" s="170"/>
+      <c r="E69" s="166"/>
+      <c r="F69" s="166"/>
+      <c r="G69" s="167"/>
       <c r="H69" s="23" t="s">
         <v>88</v>
       </c>
@@ -5972,12 +5973,12 @@
       <c r="C78" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="167" t="s">
+      <c r="D78" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="E78" s="167"/>
-      <c r="F78" s="167"/>
-      <c r="G78" s="167"/>
+      <c r="E78" s="164"/>
+      <c r="F78" s="164"/>
+      <c r="G78" s="164"/>
       <c r="H78" s="86" t="s">
         <v>196</v>
       </c>
@@ -6019,12 +6020,12 @@
       <c r="C79" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="D79" s="168" t="s">
+      <c r="D79" s="165" t="s">
         <v>95</v>
       </c>
-      <c r="E79" s="169"/>
-      <c r="F79" s="169"/>
-      <c r="G79" s="170"/>
+      <c r="E79" s="166"/>
+      <c r="F79" s="166"/>
+      <c r="G79" s="167"/>
       <c r="H79" s="86" t="s">
         <v>88</v>
       </c>
@@ -6039,327 +6040,327 @@
       <c r="Q79" s="86"/>
       <c r="R79" s="86"/>
     </row>
-    <row r="80" spans="2:18" s="97" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C80" s="98"/>
-      <c r="D80" s="98"/>
-      <c r="E80" s="98"/>
-      <c r="F80" s="98"/>
-      <c r="G80" s="98"/>
-      <c r="H80" s="98"/>
-      <c r="I80" s="98"/>
-      <c r="J80" s="98"/>
-      <c r="K80" s="98"/>
-      <c r="L80" s="98"/>
-      <c r="M80" s="98"/>
-      <c r="N80" s="98"/>
-      <c r="O80" s="98"/>
-      <c r="P80" s="98"/>
-      <c r="Q80" s="98"/>
-      <c r="R80" s="98"/>
-    </row>
-    <row r="81" spans="1:18" s="114" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="114" t="s">
+    <row r="80" spans="2:18" s="96" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C80" s="97"/>
+      <c r="D80" s="97"/>
+      <c r="E80" s="97"/>
+      <c r="F80" s="97"/>
+      <c r="G80" s="97"/>
+      <c r="H80" s="97"/>
+      <c r="I80" s="97"/>
+      <c r="J80" s="97"/>
+      <c r="K80" s="97"/>
+      <c r="L80" s="97"/>
+      <c r="M80" s="97"/>
+      <c r="N80" s="97"/>
+      <c r="O80" s="97"/>
+      <c r="P80" s="97"/>
+      <c r="Q80" s="97"/>
+      <c r="R80" s="97"/>
+    </row>
+    <row r="81" spans="1:18" s="113" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="113" t="s">
         <v>228</v>
       </c>
-      <c r="C81" s="115"/>
-      <c r="D81" s="115"/>
-      <c r="E81" s="115"/>
-      <c r="F81" s="115"/>
-      <c r="G81" s="115"/>
-      <c r="H81" s="115"/>
-      <c r="I81" s="115"/>
-      <c r="J81" s="115"/>
-      <c r="K81" s="115"/>
-      <c r="L81" s="115"/>
-      <c r="M81" s="115"/>
-      <c r="N81" s="115"/>
-      <c r="O81" s="115"/>
-      <c r="P81" s="115"/>
-      <c r="Q81" s="115"/>
-      <c r="R81" s="115"/>
-    </row>
-    <row r="82" spans="1:18" s="114" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="114" t="s">
+      <c r="C81" s="114"/>
+      <c r="D81" s="114"/>
+      <c r="E81" s="114"/>
+      <c r="F81" s="114"/>
+      <c r="G81" s="114"/>
+      <c r="H81" s="114"/>
+      <c r="I81" s="114"/>
+      <c r="J81" s="114"/>
+      <c r="K81" s="114"/>
+      <c r="L81" s="114"/>
+      <c r="M81" s="114"/>
+      <c r="N81" s="114"/>
+      <c r="O81" s="114"/>
+      <c r="P81" s="114"/>
+      <c r="Q81" s="114"/>
+      <c r="R81" s="114"/>
+    </row>
+    <row r="82" spans="1:18" s="113" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="113" t="s">
         <v>229</v>
       </c>
-      <c r="C82" s="116">
+      <c r="C82" s="115">
         <v>0</v>
       </c>
-      <c r="D82" s="116">
+      <c r="D82" s="115">
         <v>1</v>
       </c>
-      <c r="E82" s="116">
+      <c r="E82" s="115">
         <v>2</v>
       </c>
-      <c r="F82" s="116">
+      <c r="F82" s="115">
         <v>3</v>
       </c>
-      <c r="G82" s="116">
+      <c r="G82" s="115">
         <v>4</v>
       </c>
-      <c r="H82" s="116">
+      <c r="H82" s="115">
         <v>5</v>
       </c>
-      <c r="I82" s="116">
+      <c r="I82" s="115">
         <v>6</v>
       </c>
-      <c r="J82" s="116">
+      <c r="J82" s="115">
         <v>7</v>
       </c>
-      <c r="K82" s="116">
+      <c r="K82" s="115">
         <v>8</v>
       </c>
-      <c r="L82" s="116">
+      <c r="L82" s="115">
         <v>9</v>
       </c>
-      <c r="M82" s="116">
+      <c r="M82" s="115">
         <v>10</v>
       </c>
-      <c r="N82" s="116">
+      <c r="N82" s="115">
         <v>11</v>
       </c>
-      <c r="O82" s="116">
+      <c r="O82" s="115">
         <v>12</v>
       </c>
-      <c r="P82" s="116">
+      <c r="P82" s="115">
         <v>13</v>
       </c>
-      <c r="Q82" s="116">
+      <c r="Q82" s="115">
         <v>14</v>
       </c>
-      <c r="R82" s="116">
+      <c r="R82" s="115">
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:18" s="114" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C83" s="117" t="s">
+    <row r="83" spans="1:18" s="113" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C83" s="116" t="s">
         <v>230</v>
       </c>
-      <c r="D83" s="116" t="s">
+      <c r="D83" s="115" t="s">
         <v>231</v>
       </c>
-      <c r="E83" s="117" t="s">
+      <c r="E83" s="116" t="s">
         <v>232</v>
       </c>
-      <c r="F83" s="117" t="s">
+      <c r="F83" s="116" t="s">
         <v>233</v>
       </c>
-      <c r="G83" s="116" t="s">
+      <c r="G83" s="115" t="s">
         <v>233</v>
       </c>
-      <c r="H83" s="116" t="s">
+      <c r="H83" s="115" t="s">
         <v>234</v>
       </c>
-      <c r="I83" s="116" t="s">
+      <c r="I83" s="115" t="s">
         <v>283</v>
       </c>
-      <c r="J83" s="116" t="s">
+      <c r="J83" s="115" t="s">
         <v>235</v>
       </c>
-      <c r="K83" s="116" t="s">
+      <c r="K83" s="115" t="s">
         <v>236</v>
       </c>
-      <c r="L83" s="116" t="s">
+      <c r="L83" s="115" t="s">
         <v>237</v>
       </c>
-      <c r="M83" s="116" t="s">
+      <c r="M83" s="115" t="s">
         <v>238</v>
       </c>
-      <c r="N83" s="116" t="s">
+      <c r="N83" s="115" t="s">
         <v>239</v>
       </c>
-      <c r="O83" s="116" t="s">
+      <c r="O83" s="115" t="s">
         <v>240</v>
       </c>
-      <c r="P83" s="116" t="s">
+      <c r="P83" s="115" t="s">
         <v>241</v>
       </c>
-      <c r="Q83" s="116" t="s">
+      <c r="Q83" s="115" t="s">
         <v>242</v>
       </c>
-      <c r="R83" s="116" t="s">
+      <c r="R83" s="115" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="1:18" s="114" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="114" t="s">
+    <row r="84" spans="1:18" s="113" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="113" t="s">
         <v>244</v>
       </c>
-      <c r="C84" s="116"/>
-      <c r="D84" s="116"/>
-      <c r="E84" s="116"/>
-      <c r="F84" s="116"/>
-      <c r="G84" s="116"/>
-      <c r="H84" s="116" t="s">
+      <c r="C84" s="115"/>
+      <c r="D84" s="115"/>
+      <c r="E84" s="115"/>
+      <c r="F84" s="115"/>
+      <c r="G84" s="115"/>
+      <c r="H84" s="115" t="s">
         <v>245</v>
       </c>
-      <c r="I84" s="116" t="s">
+      <c r="I84" s="115" t="s">
         <v>246</v>
       </c>
-      <c r="J84" s="116" t="s">
+      <c r="J84" s="115" t="s">
         <v>247</v>
       </c>
-      <c r="K84" s="116" t="s">
+      <c r="K84" s="115" t="s">
         <v>248</v>
       </c>
-      <c r="L84" s="116" t="s">
+      <c r="L84" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="M84" s="116" t="s">
+      <c r="M84" s="115" t="s">
         <v>248</v>
       </c>
-      <c r="N84" s="116" t="s">
+      <c r="N84" s="115" t="s">
         <v>248</v>
       </c>
-      <c r="O84" s="116" t="s">
+      <c r="O84" s="115" t="s">
         <v>249</v>
       </c>
-      <c r="P84" s="116" t="s">
+      <c r="P84" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="Q84" s="116" t="s">
+      <c r="Q84" s="115" t="s">
         <v>248</v>
       </c>
-      <c r="R84" s="116" t="s">
+      <c r="R84" s="115" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:18" s="114" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C85" s="118"/>
-      <c r="D85" s="118"/>
-      <c r="E85" s="118"/>
-      <c r="F85" s="118"/>
-      <c r="G85" s="118"/>
-      <c r="H85" s="118"/>
-      <c r="I85" s="118"/>
-      <c r="J85" s="118"/>
-      <c r="K85" s="118"/>
-      <c r="L85" s="118"/>
-      <c r="M85" s="118"/>
-      <c r="N85" s="118"/>
-      <c r="O85" s="118"/>
-      <c r="P85" s="118"/>
-      <c r="Q85" s="118"/>
-      <c r="R85" s="118"/>
-    </row>
-    <row r="86" spans="1:18" s="119" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C86" s="116">
+    <row r="85" spans="1:18" s="113" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C85" s="117"/>
+      <c r="D85" s="117"/>
+      <c r="E85" s="117"/>
+      <c r="F85" s="117"/>
+      <c r="G85" s="117"/>
+      <c r="H85" s="117"/>
+      <c r="I85" s="117"/>
+      <c r="J85" s="117"/>
+      <c r="K85" s="117"/>
+      <c r="L85" s="117"/>
+      <c r="M85" s="117"/>
+      <c r="N85" s="117"/>
+      <c r="O85" s="117"/>
+      <c r="P85" s="117"/>
+      <c r="Q85" s="117"/>
+      <c r="R85" s="117"/>
+    </row>
+    <row r="86" spans="1:18" s="118" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C86" s="115">
         <v>16</v>
       </c>
-      <c r="D86" s="116">
+      <c r="D86" s="115">
         <v>17</v>
       </c>
-      <c r="E86" s="116">
+      <c r="E86" s="115">
         <v>18</v>
       </c>
-      <c r="F86" s="116">
+      <c r="F86" s="115">
         <v>19</v>
       </c>
-      <c r="G86" s="116">
+      <c r="G86" s="115">
         <v>20</v>
       </c>
-      <c r="H86" s="116">
+      <c r="H86" s="115">
         <v>21</v>
       </c>
-      <c r="I86" s="116">
+      <c r="I86" s="115">
         <v>22</v>
       </c>
-      <c r="J86" s="116">
+      <c r="J86" s="115">
         <v>23</v>
       </c>
-      <c r="K86" s="116">
+      <c r="K86" s="115">
         <v>24</v>
       </c>
-      <c r="L86" s="116">
+      <c r="L86" s="115">
         <v>25</v>
       </c>
-      <c r="M86" s="116">
+      <c r="M86" s="115">
         <v>26</v>
       </c>
-      <c r="N86" s="116">
+      <c r="N86" s="115">
         <v>27</v>
       </c>
-      <c r="O86" s="116">
+      <c r="O86" s="115">
         <v>28</v>
       </c>
-      <c r="P86" s="116">
+      <c r="P86" s="115">
         <v>29</v>
       </c>
-      <c r="Q86" s="116">
+      <c r="Q86" s="115">
         <v>30</v>
       </c>
-      <c r="R86" s="116">
+      <c r="R86" s="115">
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:18" s="119" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="116" t="s">
+    <row r="87" spans="1:18" s="118" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C87" s="115" t="s">
         <v>250</v>
       </c>
-      <c r="D87" s="171" t="s">
+      <c r="D87" s="157" t="s">
         <v>251</v>
       </c>
-      <c r="E87" s="171"/>
-      <c r="F87" s="171"/>
-      <c r="G87" s="171"/>
-      <c r="H87" s="116" t="s">
+      <c r="E87" s="157"/>
+      <c r="F87" s="157"/>
+      <c r="G87" s="157"/>
+      <c r="H87" s="115" t="s">
         <v>252</v>
       </c>
-      <c r="I87" s="116" t="s">
+      <c r="I87" s="115" t="s">
         <v>252</v>
       </c>
-      <c r="J87" s="116" t="s">
+      <c r="J87" s="115" t="s">
         <v>252</v>
       </c>
-      <c r="K87" s="116" t="s">
+      <c r="K87" s="115" t="s">
         <v>252</v>
       </c>
-      <c r="L87" s="116" t="s">
+      <c r="L87" s="115" t="s">
         <v>252</v>
       </c>
-      <c r="M87" s="116" t="s">
+      <c r="M87" s="115" t="s">
         <v>252</v>
       </c>
-      <c r="N87" s="116" t="s">
+      <c r="N87" s="115" t="s">
         <v>252</v>
       </c>
-      <c r="O87" s="116" t="s">
+      <c r="O87" s="115" t="s">
         <v>252</v>
       </c>
-      <c r="P87" s="116" t="s">
+      <c r="P87" s="115" t="s">
         <v>252</v>
       </c>
-      <c r="Q87" s="116" t="s">
+      <c r="Q87" s="115" t="s">
         <v>252</v>
       </c>
-      <c r="R87" s="116" t="s">
+      <c r="R87" s="115" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="88" spans="1:18" s="119" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="119" t="s">
+    <row r="88" spans="1:18" s="118" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="118" t="s">
         <v>244</v>
       </c>
-      <c r="C88" s="116" t="s">
+      <c r="C88" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="D88" s="172" t="s">
+      <c r="D88" s="158" t="s">
         <v>249</v>
       </c>
-      <c r="E88" s="173"/>
-      <c r="F88" s="173"/>
-      <c r="G88" s="174"/>
-      <c r="H88" s="116"/>
-      <c r="I88" s="116"/>
-      <c r="J88" s="116"/>
-      <c r="K88" s="116"/>
-      <c r="L88" s="116"/>
-      <c r="M88" s="116"/>
-      <c r="N88" s="116"/>
-      <c r="O88" s="116"/>
-      <c r="P88" s="116"/>
-      <c r="Q88" s="116"/>
-      <c r="R88" s="116"/>
+      <c r="E88" s="159"/>
+      <c r="F88" s="159"/>
+      <c r="G88" s="160"/>
+      <c r="H88" s="115"/>
+      <c r="I88" s="115"/>
+      <c r="J88" s="115"/>
+      <c r="K88" s="115"/>
+      <c r="L88" s="115"/>
+      <c r="M88" s="115"/>
+      <c r="N88" s="115"/>
+      <c r="O88" s="115"/>
+      <c r="P88" s="115"/>
+      <c r="Q88" s="115"/>
+      <c r="R88" s="115"/>
     </row>
     <row r="89" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C89" s="29"/>
@@ -7034,23 +7035,23 @@
       <c r="G111" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H111" s="165" t="s">
+      <c r="H111" s="175" t="s">
         <v>65</v>
       </c>
-      <c r="I111" s="165"/>
-      <c r="J111" s="165"/>
-      <c r="K111" s="165"/>
-      <c r="L111" s="165" t="s">
+      <c r="I111" s="175"/>
+      <c r="J111" s="175"/>
+      <c r="K111" s="175"/>
+      <c r="L111" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="M111" s="165"/>
-      <c r="N111" s="165"/>
-      <c r="O111" s="165"/>
-      <c r="P111" s="165" t="s">
+      <c r="M111" s="175"/>
+      <c r="N111" s="175"/>
+      <c r="O111" s="175"/>
+      <c r="P111" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="Q111" s="165"/>
-      <c r="R111" s="165"/>
+      <c r="Q111" s="175"/>
+      <c r="R111" s="175"/>
     </row>
     <row r="112" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C112" s="15"/>
@@ -7113,12 +7114,12 @@
       <c r="C114" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="D114" s="166" t="s">
+      <c r="D114" s="176" t="s">
         <v>69</v>
       </c>
-      <c r="E114" s="166"/>
-      <c r="F114" s="166"/>
-      <c r="G114" s="166"/>
+      <c r="E114" s="176"/>
+      <c r="F114" s="176"/>
+      <c r="G114" s="176"/>
       <c r="H114" s="39" t="s">
         <v>70</v>
       </c>
@@ -7131,10 +7132,10 @@
       <c r="K114" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="L114" s="99" t="s">
+      <c r="L114" s="98" t="s">
         <v>197</v>
       </c>
-      <c r="M114" s="99" t="s">
+      <c r="M114" s="98" t="s">
         <v>196</v>
       </c>
       <c r="N114" s="39" t="s">
@@ -7271,23 +7272,23 @@
       <c r="G120" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="H120" s="165" t="s">
+      <c r="H120" s="175" t="s">
         <v>65</v>
       </c>
-      <c r="I120" s="165"/>
-      <c r="J120" s="165"/>
-      <c r="K120" s="165"/>
-      <c r="L120" s="165" t="s">
+      <c r="I120" s="175"/>
+      <c r="J120" s="175"/>
+      <c r="K120" s="175"/>
+      <c r="L120" s="175" t="s">
         <v>154</v>
       </c>
-      <c r="M120" s="165"/>
-      <c r="N120" s="165"/>
-      <c r="O120" s="165"/>
-      <c r="P120" s="165" t="s">
+      <c r="M120" s="175"/>
+      <c r="N120" s="175"/>
+      <c r="O120" s="175"/>
+      <c r="P120" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="Q120" s="165"/>
-      <c r="R120" s="165"/>
+      <c r="Q120" s="175"/>
+      <c r="R120" s="175"/>
     </row>
     <row r="121" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C121" s="15"/>
@@ -7349,12 +7350,12 @@
       <c r="C123" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="D123" s="166" t="s">
+      <c r="D123" s="176" t="s">
         <v>69</v>
       </c>
-      <c r="E123" s="166"/>
-      <c r="F123" s="166"/>
-      <c r="G123" s="166"/>
+      <c r="E123" s="176"/>
+      <c r="F123" s="176"/>
+      <c r="G123" s="176"/>
       <c r="H123" s="36" t="s">
         <v>70</v>
       </c>
@@ -7439,234 +7440,234 @@
       <c r="B128" s="84" t="s">
         <v>277</v>
       </c>
-      <c r="C128" s="103">
+      <c r="C128" s="102">
         <v>0</v>
       </c>
-      <c r="D128" s="103">
+      <c r="D128" s="102">
         <v>1</v>
       </c>
-      <c r="E128" s="103">
+      <c r="E128" s="102">
         <v>2</v>
       </c>
-      <c r="F128" s="103">
+      <c r="F128" s="102">
         <v>3</v>
       </c>
-      <c r="G128" s="103">
+      <c r="G128" s="102">
         <v>4</v>
       </c>
-      <c r="H128" s="103">
+      <c r="H128" s="102">
         <v>5</v>
       </c>
-      <c r="I128" s="103">
+      <c r="I128" s="102">
         <v>6</v>
       </c>
-      <c r="J128" s="103">
+      <c r="J128" s="102">
         <v>7</v>
       </c>
-      <c r="K128" s="103">
+      <c r="K128" s="102">
         <v>8</v>
       </c>
-      <c r="L128" s="103">
+      <c r="L128" s="102">
         <v>9</v>
       </c>
-      <c r="M128" s="103">
+      <c r="M128" s="102">
         <v>10</v>
       </c>
-      <c r="N128" s="103">
+      <c r="N128" s="102">
         <v>11</v>
       </c>
-      <c r="O128" s="103">
+      <c r="O128" s="102">
         <v>12</v>
       </c>
-      <c r="P128" s="103">
+      <c r="P128" s="102">
         <v>13</v>
       </c>
-      <c r="Q128" s="103">
+      <c r="Q128" s="102">
         <v>14</v>
       </c>
-      <c r="R128" s="103">
+      <c r="R128" s="102">
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:18" s="104" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:18" s="103" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B129" s="84" t="s">
         <v>254</v>
       </c>
-      <c r="C129" s="105" t="s">
+      <c r="C129" s="104" t="s">
         <v>255</v>
       </c>
-      <c r="D129" s="105" t="s">
+      <c r="D129" s="104" t="s">
         <v>256</v>
       </c>
-      <c r="E129" s="105" t="s">
+      <c r="E129" s="104" t="s">
         <v>257</v>
       </c>
-      <c r="F129" s="105" t="s">
+      <c r="F129" s="104" t="s">
         <v>258</v>
       </c>
-      <c r="G129" s="105" t="s">
+      <c r="G129" s="104" t="s">
         <v>259</v>
       </c>
-      <c r="H129" s="175" t="s">
+      <c r="H129" s="161" t="s">
         <v>260</v>
       </c>
-      <c r="I129" s="175"/>
-      <c r="J129" s="175"/>
-      <c r="K129" s="175"/>
-      <c r="L129" s="175" t="s">
+      <c r="I129" s="161"/>
+      <c r="J129" s="161"/>
+      <c r="K129" s="161"/>
+      <c r="L129" s="161" t="s">
         <v>261</v>
       </c>
-      <c r="M129" s="175"/>
-      <c r="N129" s="175"/>
-      <c r="O129" s="175"/>
-      <c r="P129" s="103" t="s">
+      <c r="M129" s="161"/>
+      <c r="N129" s="161"/>
+      <c r="O129" s="161"/>
+      <c r="P129" s="102" t="s">
         <v>262</v>
       </c>
-      <c r="Q129" s="103" t="s">
+      <c r="Q129" s="102" t="s">
         <v>263</v>
       </c>
-      <c r="R129" s="103" t="s">
+      <c r="R129" s="102" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="130" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C130" s="106"/>
-      <c r="D130" s="106"/>
-      <c r="E130" s="106"/>
-      <c r="F130" s="106"/>
-      <c r="G130" s="106"/>
-      <c r="H130" s="106"/>
-      <c r="I130" s="106"/>
-      <c r="J130" s="106"/>
-      <c r="K130" s="106"/>
-      <c r="L130" s="106"/>
-      <c r="M130" s="106"/>
-      <c r="N130" s="106"/>
-      <c r="O130" s="106"/>
-      <c r="P130" s="106"/>
-      <c r="Q130" s="106"/>
-      <c r="R130" s="106"/>
+      <c r="C130" s="105"/>
+      <c r="D130" s="105"/>
+      <c r="E130" s="105"/>
+      <c r="F130" s="105"/>
+      <c r="G130" s="105"/>
+      <c r="H130" s="105"/>
+      <c r="I130" s="105"/>
+      <c r="J130" s="105"/>
+      <c r="K130" s="105"/>
+      <c r="L130" s="105"/>
+      <c r="M130" s="105"/>
+      <c r="N130" s="105"/>
+      <c r="O130" s="105"/>
+      <c r="P130" s="105"/>
+      <c r="Q130" s="105"/>
+      <c r="R130" s="105"/>
     </row>
     <row r="131" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C131" s="103">
+      <c r="C131" s="102">
         <v>16</v>
       </c>
-      <c r="D131" s="103">
+      <c r="D131" s="102">
         <v>17</v>
       </c>
-      <c r="E131" s="103">
+      <c r="E131" s="102">
         <v>18</v>
       </c>
-      <c r="F131" s="103">
+      <c r="F131" s="102">
         <v>19</v>
       </c>
-      <c r="G131" s="103">
+      <c r="G131" s="102">
         <v>20</v>
       </c>
-      <c r="H131" s="103">
+      <c r="H131" s="102">
         <v>21</v>
       </c>
-      <c r="I131" s="103">
+      <c r="I131" s="102">
         <v>22</v>
       </c>
-      <c r="J131" s="103">
+      <c r="J131" s="102">
         <v>23</v>
       </c>
-      <c r="K131" s="103">
+      <c r="K131" s="102">
         <v>24</v>
       </c>
-      <c r="L131" s="103">
+      <c r="L131" s="102">
         <v>25</v>
       </c>
-      <c r="M131" s="103">
+      <c r="M131" s="102">
         <v>26</v>
       </c>
-      <c r="N131" s="103">
+      <c r="N131" s="102">
         <v>27</v>
       </c>
     </row>
     <row r="132" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B132" s="107"/>
-      <c r="C132" s="176" t="s">
+      <c r="B132" s="106"/>
+      <c r="C132" s="162" t="s">
         <v>265</v>
       </c>
-      <c r="D132" s="177"/>
-      <c r="E132" s="103" t="s">
+      <c r="D132" s="163"/>
+      <c r="E132" s="102" t="s">
         <v>266</v>
       </c>
-      <c r="F132" s="103">
+      <c r="F132" s="102">
         <v>0</v>
       </c>
-      <c r="G132" s="103">
+      <c r="G132" s="102">
         <v>0</v>
       </c>
-      <c r="H132" s="103" t="s">
+      <c r="H132" s="102" t="s">
         <v>267</v>
       </c>
-      <c r="I132" s="103" t="s">
+      <c r="I132" s="102" t="s">
         <v>268</v>
       </c>
-      <c r="J132" s="103" t="s">
+      <c r="J132" s="102" t="s">
         <v>269</v>
       </c>
-      <c r="K132" s="103" t="s">
+      <c r="K132" s="102" t="s">
         <v>270</v>
       </c>
-      <c r="L132" s="99" t="s">
+      <c r="L132" s="98" t="s">
         <v>271</v>
       </c>
-      <c r="M132" s="99" t="s">
+      <c r="M132" s="98" t="s">
         <v>272</v>
       </c>
-      <c r="N132" s="103" t="s">
+      <c r="N132" s="102" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="133" spans="1:18" s="97" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C133" s="98"/>
-      <c r="D133" s="98"/>
-      <c r="E133" s="98"/>
-      <c r="F133" s="98"/>
-      <c r="G133" s="98"/>
-      <c r="H133" s="98"/>
-      <c r="I133" s="98"/>
-      <c r="J133" s="98"/>
-      <c r="K133" s="98"/>
-      <c r="L133" s="98"/>
-      <c r="M133" s="98"/>
-      <c r="N133" s="98"/>
-    </row>
-    <row r="134" spans="1:18" s="107" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="107" t="s">
+    <row r="133" spans="1:18" s="96" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C133" s="97"/>
+      <c r="D133" s="97"/>
+      <c r="E133" s="97"/>
+      <c r="F133" s="97"/>
+      <c r="G133" s="97"/>
+      <c r="H133" s="97"/>
+      <c r="I133" s="97"/>
+      <c r="J133" s="97"/>
+      <c r="K133" s="97"/>
+      <c r="L133" s="97"/>
+      <c r="M133" s="97"/>
+      <c r="N133" s="97"/>
+    </row>
+    <row r="134" spans="1:18" s="106" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B134" s="106" t="s">
         <v>278</v>
       </c>
-      <c r="C134" s="103">
+      <c r="C134" s="102">
         <v>0</v>
       </c>
-      <c r="D134" s="103">
+      <c r="D134" s="102">
         <v>1</v>
       </c>
-      <c r="E134" s="103">
+      <c r="E134" s="102">
         <v>2</v>
       </c>
-      <c r="F134" s="103">
+      <c r="F134" s="102">
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:18" s="104" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="104" t="s">
+    <row r="135" spans="1:18" s="103" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B135" s="103" t="s">
         <v>168</v>
       </c>
-      <c r="C135" s="105" t="s">
+      <c r="C135" s="104" t="s">
         <v>255</v>
       </c>
-      <c r="D135" s="105" t="s">
+      <c r="D135" s="104" t="s">
         <v>256</v>
       </c>
-      <c r="E135" s="105">
+      <c r="E135" s="104">
         <v>11</v>
       </c>
-      <c r="F135" s="105" t="s">
+      <c r="F135" s="104" t="s">
         <v>273</v>
       </c>
     </row>
@@ -7933,18 +7934,18 @@
       <c r="F144" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="G144" s="158" t="s">
+      <c r="G144" s="172" t="s">
         <v>198</v>
       </c>
-      <c r="H144" s="159"/>
-      <c r="I144" s="159"/>
-      <c r="J144" s="160"/>
-      <c r="K144" s="158" t="s">
+      <c r="H144" s="173"/>
+      <c r="I144" s="173"/>
+      <c r="J144" s="174"/>
+      <c r="K144" s="172" t="s">
         <v>204</v>
       </c>
-      <c r="L144" s="159"/>
-      <c r="M144" s="159"/>
-      <c r="N144" s="160"/>
+      <c r="L144" s="173"/>
+      <c r="M144" s="173"/>
+      <c r="N144" s="174"/>
       <c r="O144" s="62" t="s">
         <v>199</v>
       </c>
@@ -7966,21 +7967,6 @@
     <row r="150" s="28" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H129:K129"/>
-    <mergeCell ref="L129:O129"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
     <mergeCell ref="G144:J144"/>
     <mergeCell ref="K144:N144"/>
     <mergeCell ref="D23:G23"/>
@@ -7997,6 +7983,21 @@
     <mergeCell ref="L111:O111"/>
     <mergeCell ref="P111:R111"/>
     <mergeCell ref="D68:G68"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:O129"/>
+    <mergeCell ref="C132:D132"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8014,55 +8015,55 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="21.5" style="123" customWidth="1"/>
-    <col min="3" max="7" width="9" style="122"/>
+    <col min="2" max="2" width="21.5" style="122" customWidth="1"/>
+    <col min="3" max="7" width="9" style="121"/>
     <col min="8" max="8" width="15.875" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="128" t="s">
         <v>285</v>
       </c>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="180" t="s">
         <v>286</v>
       </c>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="130" t="s">
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="129" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="178" t="s">
+      <c r="B3" s="177" t="s">
         <v>307</v>
       </c>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="180"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="179"/>
     </row>
     <row r="4" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="123" t="s">
         <v>288</v>
       </c>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="124" t="s">
         <v>289</v>
       </c>
-      <c r="D4" s="125" t="s">
+      <c r="D4" s="124" t="s">
         <v>290</v>
       </c>
-      <c r="E4" s="125" t="s">
+      <c r="E4" s="124" t="s">
         <v>291</v>
       </c>
-      <c r="F4" s="125" t="s">
+      <c r="F4" s="124" t="s">
         <v>292</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="124" t="s">
         <v>293</v>
       </c>
       <c r="H4" s="73">
@@ -8070,22 +8071,22 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="125" t="s">
         <v>294</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="124" t="s">
         <v>289</v>
       </c>
-      <c r="D5" s="125" t="s">
+      <c r="D5" s="124" t="s">
         <v>317</v>
       </c>
-      <c r="E5" s="125" t="s">
+      <c r="E5" s="124" t="s">
         <v>318</v>
       </c>
-      <c r="F5" s="125" t="s">
+      <c r="F5" s="124" t="s">
         <v>319</v>
       </c>
-      <c r="G5" s="125" t="s">
+      <c r="G5" s="124" t="s">
         <v>320</v>
       </c>
       <c r="H5" s="73">
@@ -8093,22 +8094,22 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="125" t="s">
         <v>295</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="124" t="s">
         <v>289</v>
       </c>
-      <c r="D6" s="125" t="s">
+      <c r="D6" s="124" t="s">
         <v>317</v>
       </c>
-      <c r="E6" s="125" t="s">
+      <c r="E6" s="124" t="s">
         <v>318</v>
       </c>
-      <c r="F6" s="125" t="s">
+      <c r="F6" s="124" t="s">
         <v>321</v>
       </c>
-      <c r="G6" s="125" t="s">
+      <c r="G6" s="124" t="s">
         <v>321</v>
       </c>
       <c r="H6" s="73">
@@ -8116,22 +8117,22 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="125" t="s">
         <v>296</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="124" t="s">
         <v>289</v>
       </c>
-      <c r="D7" s="125" t="s">
+      <c r="D7" s="124" t="s">
         <v>317</v>
       </c>
-      <c r="E7" s="125" t="s">
+      <c r="E7" s="124" t="s">
         <v>289</v>
       </c>
-      <c r="F7" s="125" t="s">
+      <c r="F7" s="124" t="s">
         <v>321</v>
       </c>
-      <c r="G7" s="125" t="s">
+      <c r="G7" s="124" t="s">
         <v>322</v>
       </c>
       <c r="H7" s="73">
@@ -8139,22 +8140,22 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="126" t="s">
+      <c r="B8" s="125" t="s">
         <v>297</v>
       </c>
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="124" t="s">
         <v>289</v>
       </c>
-      <c r="D8" s="125" t="s">
+      <c r="D8" s="124" t="s">
         <v>317</v>
       </c>
-      <c r="E8" s="125" t="s">
+      <c r="E8" s="124" t="s">
         <v>318</v>
       </c>
-      <c r="F8" s="125" t="s">
+      <c r="F8" s="124" t="s">
         <v>323</v>
       </c>
-      <c r="G8" s="125" t="s">
+      <c r="G8" s="124" t="s">
         <v>323</v>
       </c>
       <c r="H8" s="73">
@@ -8162,22 +8163,22 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="126" t="s">
+      <c r="B9" s="125" t="s">
         <v>298</v>
       </c>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="124" t="s">
         <v>289</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="124" t="s">
         <v>317</v>
       </c>
-      <c r="E9" s="125" t="s">
+      <c r="E9" s="124" t="s">
         <v>318</v>
       </c>
-      <c r="F9" s="125" t="s">
+      <c r="F9" s="124" t="s">
         <v>319</v>
       </c>
-      <c r="G9" s="125" t="s">
+      <c r="G9" s="124" t="s">
         <v>323</v>
       </c>
       <c r="H9" s="73">
@@ -8185,22 +8186,22 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="126" t="s">
+      <c r="B10" s="125" t="s">
         <v>299</v>
       </c>
-      <c r="C10" s="125" t="s">
+      <c r="C10" s="124" t="s">
         <v>289</v>
       </c>
-      <c r="D10" s="125" t="s">
+      <c r="D10" s="124" t="s">
         <v>317</v>
       </c>
-      <c r="E10" s="125" t="s">
+      <c r="E10" s="124" t="s">
         <v>318</v>
       </c>
-      <c r="F10" s="125" t="s">
+      <c r="F10" s="124" t="s">
         <v>321</v>
       </c>
-      <c r="G10" s="125" t="s">
+      <c r="G10" s="124" t="s">
         <v>324</v>
       </c>
       <c r="H10" s="73">
@@ -8208,22 +8209,22 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="126" t="s">
+      <c r="B11" s="125" t="s">
         <v>300</v>
       </c>
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="124" t="s">
         <v>289</v>
       </c>
-      <c r="D11" s="125" t="s">
+      <c r="D11" s="124" t="s">
         <v>317</v>
       </c>
-      <c r="E11" s="125" t="s">
+      <c r="E11" s="124" t="s">
         <v>318</v>
       </c>
-      <c r="F11" s="125" t="s">
+      <c r="F11" s="124" t="s">
         <v>325</v>
       </c>
-      <c r="G11" s="125" t="s">
+      <c r="G11" s="124" t="s">
         <v>326</v>
       </c>
       <c r="H11" s="73">
@@ -8231,22 +8232,22 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="126" t="s">
+      <c r="B12" s="125" t="s">
         <v>301</v>
       </c>
-      <c r="C12" s="125" t="s">
+      <c r="C12" s="124" t="s">
         <v>289</v>
       </c>
-      <c r="D12" s="125" t="s">
+      <c r="D12" s="124" t="s">
         <v>317</v>
       </c>
-      <c r="E12" s="125" t="s">
+      <c r="E12" s="124" t="s">
         <v>318</v>
       </c>
-      <c r="F12" s="125" t="s">
+      <c r="F12" s="124" t="s">
         <v>324</v>
       </c>
-      <c r="G12" s="125" t="s">
+      <c r="G12" s="124" t="s">
         <v>325</v>
       </c>
       <c r="H12" s="73">
@@ -8254,22 +8255,22 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="126" t="s">
+      <c r="B13" s="125" t="s">
         <v>302</v>
       </c>
-      <c r="C13" s="125" t="s">
+      <c r="C13" s="124" t="s">
         <v>289</v>
       </c>
-      <c r="D13" s="125" t="s">
+      <c r="D13" s="124" t="s">
         <v>317</v>
       </c>
-      <c r="E13" s="125" t="s">
+      <c r="E13" s="124" t="s">
         <v>318</v>
       </c>
-      <c r="F13" s="125" t="s">
+      <c r="F13" s="124" t="s">
         <v>327</v>
       </c>
-      <c r="G13" s="125" t="s">
+      <c r="G13" s="124" t="s">
         <v>327</v>
       </c>
       <c r="H13" s="73">
@@ -8277,33 +8278,33 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="182" t="s">
+      <c r="B14" s="181" t="s">
         <v>308</v>
       </c>
-      <c r="C14" s="183"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="184"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="182"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="182"/>
+      <c r="H14" s="183"/>
     </row>
     <row r="15" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="124" t="s">
+      <c r="B15" s="123" t="s">
         <v>303</v>
       </c>
-      <c r="C15" s="125" t="s">
+      <c r="C15" s="124" t="s">
         <v>289</v>
       </c>
-      <c r="D15" s="125" t="s">
+      <c r="D15" s="124" t="s">
         <v>290</v>
       </c>
-      <c r="E15" s="125" t="s">
+      <c r="E15" s="124" t="s">
         <v>328</v>
       </c>
-      <c r="F15" s="125" t="s">
+      <c r="F15" s="124" t="s">
         <v>329</v>
       </c>
-      <c r="G15" s="125" t="s">
+      <c r="G15" s="124" t="s">
         <v>293</v>
       </c>
       <c r="H15" s="73">
@@ -8311,75 +8312,75 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="126" t="s">
+      <c r="B16" s="125" t="s">
         <v>304</v>
       </c>
-      <c r="C16" s="125" t="s">
+      <c r="C16" s="124" t="s">
         <v>289</v>
       </c>
-      <c r="D16" s="125" t="s">
+      <c r="D16" s="124" t="s">
         <v>290</v>
       </c>
-      <c r="E16" s="125" t="s">
+      <c r="E16" s="124" t="s">
         <v>328</v>
       </c>
-      <c r="F16" s="125" t="s">
+      <c r="F16" s="124" t="s">
         <v>329</v>
       </c>
-      <c r="G16" s="131"/>
+      <c r="G16" s="130"/>
       <c r="H16" s="73">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="126" t="s">
+      <c r="B17" s="125" t="s">
         <v>305</v>
       </c>
-      <c r="C17" s="125" t="s">
+      <c r="C17" s="124" t="s">
         <v>289</v>
       </c>
-      <c r="D17" s="125" t="s">
+      <c r="D17" s="124" t="s">
         <v>290</v>
       </c>
-      <c r="E17" s="125" t="s">
+      <c r="E17" s="124" t="s">
         <v>328</v>
       </c>
-      <c r="F17" s="125" t="s">
+      <c r="F17" s="124" t="s">
         <v>329</v>
       </c>
-      <c r="G17" s="131"/>
+      <c r="G17" s="130"/>
       <c r="H17" s="73">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="182" t="s">
+      <c r="B18" s="181" t="s">
         <v>309</v>
       </c>
-      <c r="C18" s="183"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="184"/>
+      <c r="C18" s="182"/>
+      <c r="D18" s="182"/>
+      <c r="E18" s="182"/>
+      <c r="F18" s="182"/>
+      <c r="G18" s="182"/>
+      <c r="H18" s="183"/>
     </row>
     <row r="19" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="126" t="s">
+      <c r="B19" s="125" t="s">
         <v>306</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="124" t="s">
         <v>289</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="124" t="s">
         <v>330</v>
       </c>
-      <c r="E19" s="125" t="s">
+      <c r="E19" s="124" t="s">
         <v>291</v>
       </c>
-      <c r="F19" s="125" t="s">
+      <c r="F19" s="124" t="s">
         <v>292</v>
       </c>
-      <c r="G19" s="125" t="s">
+      <c r="G19" s="124" t="s">
         <v>293</v>
       </c>
       <c r="H19" s="73">
@@ -8387,41 +8388,41 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="126" t="s">
+      <c r="B20" s="125" t="s">
         <v>310</v>
       </c>
-      <c r="C20" s="125" t="s">
+      <c r="C20" s="124" t="s">
         <v>289</v>
       </c>
-      <c r="D20" s="125" t="s">
+      <c r="D20" s="124" t="s">
         <v>330</v>
       </c>
-      <c r="E20" s="125" t="s">
+      <c r="E20" s="124" t="s">
         <v>291</v>
       </c>
-      <c r="F20" s="131"/>
-      <c r="G20" s="131"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="130"/>
       <c r="H20" s="73">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="126" t="s">
+      <c r="B21" s="125" t="s">
         <v>311</v>
       </c>
-      <c r="C21" s="125" t="s">
+      <c r="C21" s="124" t="s">
         <v>330</v>
       </c>
-      <c r="D21" s="125" t="s">
+      <c r="D21" s="124" t="s">
         <v>289</v>
       </c>
-      <c r="E21" s="125" t="s">
+      <c r="E21" s="124" t="s">
         <v>291</v>
       </c>
-      <c r="F21" s="125" t="s">
+      <c r="F21" s="124" t="s">
         <v>292</v>
       </c>
-      <c r="G21" s="125" t="s">
+      <c r="G21" s="124" t="s">
         <v>293</v>
       </c>
       <c r="H21" s="73">
@@ -8429,41 +8430,41 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="126" t="s">
+      <c r="B22" s="125" t="s">
         <v>312</v>
       </c>
-      <c r="C22" s="125" t="s">
+      <c r="C22" s="124" t="s">
         <v>330</v>
       </c>
-      <c r="D22" s="125" t="s">
+      <c r="D22" s="124" t="s">
         <v>289</v>
       </c>
-      <c r="E22" s="125" t="s">
+      <c r="E22" s="124" t="s">
         <v>291</v>
       </c>
-      <c r="F22" s="131"/>
-      <c r="G22" s="131"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="130"/>
       <c r="H22" s="73">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="126" t="s">
+      <c r="B23" s="125" t="s">
         <v>313</v>
       </c>
-      <c r="C23" s="125" t="s">
+      <c r="C23" s="124" t="s">
         <v>331</v>
       </c>
-      <c r="D23" s="125" t="s">
+      <c r="D23" s="124" t="s">
         <v>332</v>
       </c>
-      <c r="E23" s="125" t="s">
+      <c r="E23" s="124" t="s">
         <v>291</v>
       </c>
-      <c r="F23" s="125" t="s">
+      <c r="F23" s="124" t="s">
         <v>292</v>
       </c>
-      <c r="G23" s="125" t="s">
+      <c r="G23" s="124" t="s">
         <v>293</v>
       </c>
       <c r="H23" s="73">
@@ -8471,52 +8472,52 @@
       </c>
     </row>
     <row r="24" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="126" t="s">
+      <c r="B24" s="125" t="s">
         <v>314</v>
       </c>
-      <c r="C24" s="125" t="s">
+      <c r="C24" s="124" t="s">
         <v>331</v>
       </c>
-      <c r="D24" s="125" t="s">
+      <c r="D24" s="124" t="s">
         <v>332</v>
       </c>
-      <c r="E24" s="125" t="s">
+      <c r="E24" s="124" t="s">
         <v>291</v>
       </c>
-      <c r="F24" s="131"/>
-      <c r="G24" s="131"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
       <c r="H24" s="73">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="178" t="s">
+      <c r="B25" s="177" t="s">
         <v>315</v>
       </c>
-      <c r="C25" s="179"/>
-      <c r="D25" s="179"/>
-      <c r="E25" s="179"/>
-      <c r="F25" s="179"/>
-      <c r="G25" s="179"/>
-      <c r="H25" s="180"/>
+      <c r="C25" s="178"/>
+      <c r="D25" s="178"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="178"/>
+      <c r="H25" s="179"/>
     </row>
     <row r="26" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="124" t="s">
+      <c r="B26" s="123" t="s">
         <v>217</v>
       </c>
-      <c r="C26" s="125" t="s">
+      <c r="C26" s="124" t="s">
         <v>289</v>
       </c>
-      <c r="D26" s="125" t="s">
+      <c r="D26" s="124" t="s">
         <v>290</v>
       </c>
-      <c r="E26" s="125" t="s">
+      <c r="E26" s="124" t="s">
         <v>292</v>
       </c>
-      <c r="F26" s="125" t="s">
+      <c r="F26" s="124" t="s">
         <v>328</v>
       </c>
-      <c r="G26" s="125" t="s">
+      <c r="G26" s="124" t="s">
         <v>293</v>
       </c>
       <c r="H26" s="73">
@@ -8524,22 +8525,22 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="127" t="s">
+      <c r="B27" s="126" t="s">
         <v>316</v>
       </c>
-      <c r="C27" s="128" t="s">
+      <c r="C27" s="127" t="s">
         <v>289</v>
       </c>
-      <c r="D27" s="128" t="s">
+      <c r="D27" s="127" t="s">
         <v>290</v>
       </c>
-      <c r="E27" s="128" t="s">
+      <c r="E27" s="127" t="s">
         <v>328</v>
       </c>
-      <c r="F27" s="128" t="s">
+      <c r="F27" s="127" t="s">
         <v>333</v>
       </c>
-      <c r="G27" s="131"/>
+      <c r="G27" s="130"/>
       <c r="H27" s="72">
         <v>16</v>
       </c>

--- a/相关资料/01 通讯协议/航安LED灯具通讯协议-20180408.xlsx
+++ b/相关资料/01 通讯协议/航安LED灯具通讯协议-20180408.xlsx
@@ -1402,13 +1402,12 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1.72*0.75</t>
+      <t>1.72/0.75</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2332,19 +2331,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2368,6 +2367,45 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2387,45 +2425,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2449,7 +2448,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2755,7 +2754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -2899,10 +2898,10 @@
       <c r="C13" s="144" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="146">
+      <c r="D13" s="147">
         <v>5</v>
       </c>
-      <c r="E13" s="146">
+      <c r="E13" s="147">
         <v>6</v>
       </c>
       <c r="F13" s="89">
@@ -2919,9 +2918,9 @@
       </c>
     </row>
     <row r="14" spans="1:11" s="134" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="148"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="149"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
       <c r="F14" s="89">
         <v>1</v>
       </c>
@@ -2936,9 +2935,9 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="145"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="149"/>
       <c r="F15" s="141">
         <v>1</v>
       </c>
@@ -2989,10 +2988,10 @@
       <c r="C18" s="144" t="s">
         <v>174</v>
       </c>
-      <c r="D18" s="146">
+      <c r="D18" s="147">
         <v>8</v>
       </c>
-      <c r="E18" s="146">
+      <c r="E18" s="147">
         <v>0</v>
       </c>
       <c r="F18" s="77">
@@ -3009,9 +3008,9 @@
       </c>
     </row>
     <row r="19" spans="3:9" s="110" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="145"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="149"/>
+      <c r="E19" s="149"/>
       <c r="F19" s="119">
         <v>1</v>
       </c>
@@ -3101,10 +3100,10 @@
       <c r="C24" s="144" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="146">
+      <c r="D24" s="147">
         <v>12</v>
       </c>
-      <c r="E24" s="146">
+      <c r="E24" s="147">
         <v>0</v>
       </c>
       <c r="F24" s="77">
@@ -3121,9 +3120,9 @@
       </c>
     </row>
     <row r="25" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="145"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="149"/>
       <c r="F25" s="88">
         <v>1</v>
       </c>
@@ -3236,6 +3235,12 @@
     <row r="46" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="E13:E15"/>
@@ -3244,12 +3249,6 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3750,12 +3749,12 @@
       <c r="L14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="168" t="s">
+      <c r="M14" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="168"/>
-      <c r="O14" s="168"/>
-      <c r="P14" s="168"/>
+      <c r="N14" s="160"/>
+      <c r="O14" s="160"/>
+      <c r="P14" s="160"/>
       <c r="Q14" s="27" t="s">
         <v>284</v>
       </c>
@@ -3797,12 +3796,12 @@
       <c r="L15" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="M15" s="168" t="s">
+      <c r="M15" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="N15" s="168"/>
-      <c r="O15" s="168"/>
-      <c r="P15" s="168"/>
+      <c r="N15" s="160"/>
+      <c r="O15" s="160"/>
+      <c r="P15" s="160"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
     </row>
@@ -4045,12 +4044,12 @@
       <c r="C23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="168" t="s">
+      <c r="D23" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="168"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="168"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
       <c r="H23" s="111" t="s">
         <v>284</v>
       </c>
@@ -4092,12 +4091,12 @@
       <c r="C24" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="169" t="s">
+      <c r="D24" s="161" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="170"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="171"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="163"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -4350,12 +4349,12 @@
       <c r="C32" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="164" t="s">
+      <c r="D32" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="164"/>
-      <c r="F32" s="164"/>
-      <c r="G32" s="164"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="166"/>
       <c r="H32" s="111" t="s">
         <v>284</v>
       </c>
@@ -4397,12 +4396,12 @@
       <c r="C33" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="165" t="s">
+      <c r="D33" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="166"/>
-      <c r="F33" s="166"/>
-      <c r="G33" s="167"/>
+      <c r="E33" s="168"/>
+      <c r="F33" s="168"/>
+      <c r="G33" s="169"/>
       <c r="H33" s="66"/>
       <c r="I33" s="66" t="s">
         <v>280</v>
@@ -4698,12 +4697,12 @@
       <c r="K41" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L41" s="169" t="s">
+      <c r="L41" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="M41" s="170"/>
-      <c r="N41" s="170"/>
-      <c r="O41" s="171"/>
+      <c r="M41" s="162"/>
+      <c r="N41" s="162"/>
+      <c r="O41" s="163"/>
       <c r="P41" s="30" t="s">
         <v>141</v>
       </c>
@@ -4745,12 +4744,12 @@
       <c r="K42" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="L42" s="169" t="s">
+      <c r="L42" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="M42" s="170"/>
-      <c r="N42" s="170"/>
-      <c r="O42" s="171"/>
+      <c r="M42" s="162"/>
+      <c r="N42" s="162"/>
+      <c r="O42" s="163"/>
       <c r="P42" s="30" t="s">
         <v>132</v>
       </c>
@@ -5041,12 +5040,12 @@
       <c r="L50" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M50" s="168" t="s">
+      <c r="M50" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="N50" s="168"/>
-      <c r="O50" s="168"/>
-      <c r="P50" s="168"/>
+      <c r="N50" s="160"/>
+      <c r="O50" s="160"/>
+      <c r="P50" s="160"/>
       <c r="Q50" s="32" t="s">
         <v>140</v>
       </c>
@@ -5088,12 +5087,12 @@
       <c r="L51" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="M51" s="168" t="s">
+      <c r="M51" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="N51" s="168"/>
-      <c r="O51" s="168"/>
-      <c r="P51" s="168"/>
+      <c r="N51" s="160"/>
+      <c r="O51" s="160"/>
+      <c r="P51" s="160"/>
       <c r="Q51" s="32" t="s">
         <v>90</v>
       </c>
@@ -5339,12 +5338,12 @@
       <c r="C59" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="168" t="s">
+      <c r="D59" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="E59" s="168"/>
-      <c r="F59" s="168"/>
-      <c r="G59" s="168"/>
+      <c r="E59" s="160"/>
+      <c r="F59" s="160"/>
+      <c r="G59" s="160"/>
       <c r="H59" s="32" t="s">
         <v>147</v>
       </c>
@@ -5386,12 +5385,12 @@
       <c r="C60" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="D60" s="169" t="s">
+      <c r="D60" s="161" t="s">
         <v>105</v>
       </c>
-      <c r="E60" s="170"/>
-      <c r="F60" s="170"/>
-      <c r="G60" s="171"/>
+      <c r="E60" s="162"/>
+      <c r="F60" s="162"/>
+      <c r="G60" s="163"/>
       <c r="H60" s="32" t="s">
         <v>158</v>
       </c>
@@ -5648,12 +5647,12 @@
       <c r="C68" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="164" t="s">
+      <c r="D68" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="E68" s="164"/>
-      <c r="F68" s="164"/>
-      <c r="G68" s="164"/>
+      <c r="E68" s="166"/>
+      <c r="F68" s="166"/>
+      <c r="G68" s="166"/>
       <c r="H68" s="23" t="s">
         <v>196</v>
       </c>
@@ -5695,12 +5694,12 @@
       <c r="C69" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D69" s="165" t="s">
+      <c r="D69" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="E69" s="166"/>
-      <c r="F69" s="166"/>
-      <c r="G69" s="167"/>
+      <c r="E69" s="168"/>
+      <c r="F69" s="168"/>
+      <c r="G69" s="169"/>
       <c r="H69" s="23" t="s">
         <v>88</v>
       </c>
@@ -5973,12 +5972,12 @@
       <c r="C78" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="164" t="s">
+      <c r="D78" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="E78" s="164"/>
-      <c r="F78" s="164"/>
-      <c r="G78" s="164"/>
+      <c r="E78" s="166"/>
+      <c r="F78" s="166"/>
+      <c r="G78" s="166"/>
       <c r="H78" s="86" t="s">
         <v>196</v>
       </c>
@@ -6020,12 +6019,12 @@
       <c r="C79" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="D79" s="165" t="s">
+      <c r="D79" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="E79" s="166"/>
-      <c r="F79" s="166"/>
-      <c r="G79" s="167"/>
+      <c r="E79" s="168"/>
+      <c r="F79" s="168"/>
+      <c r="G79" s="169"/>
       <c r="H79" s="86" t="s">
         <v>88</v>
       </c>
@@ -6297,12 +6296,12 @@
       <c r="C87" s="115" t="s">
         <v>250</v>
       </c>
-      <c r="D87" s="157" t="s">
+      <c r="D87" s="170" t="s">
         <v>251</v>
       </c>
-      <c r="E87" s="157"/>
-      <c r="F87" s="157"/>
-      <c r="G87" s="157"/>
+      <c r="E87" s="170"/>
+      <c r="F87" s="170"/>
+      <c r="G87" s="170"/>
       <c r="H87" s="115" t="s">
         <v>252</v>
       </c>
@@ -6344,12 +6343,12 @@
       <c r="C88" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="D88" s="158" t="s">
+      <c r="D88" s="171" t="s">
         <v>249</v>
       </c>
-      <c r="E88" s="159"/>
-      <c r="F88" s="159"/>
-      <c r="G88" s="160"/>
+      <c r="E88" s="172"/>
+      <c r="F88" s="172"/>
+      <c r="G88" s="173"/>
       <c r="H88" s="115"/>
       <c r="I88" s="115"/>
       <c r="J88" s="115"/>
@@ -7035,23 +7034,23 @@
       <c r="G111" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H111" s="175" t="s">
+      <c r="H111" s="164" t="s">
         <v>65</v>
       </c>
-      <c r="I111" s="175"/>
-      <c r="J111" s="175"/>
-      <c r="K111" s="175"/>
-      <c r="L111" s="175" t="s">
+      <c r="I111" s="164"/>
+      <c r="J111" s="164"/>
+      <c r="K111" s="164"/>
+      <c r="L111" s="164" t="s">
         <v>66</v>
       </c>
-      <c r="M111" s="175"/>
-      <c r="N111" s="175"/>
-      <c r="O111" s="175"/>
-      <c r="P111" s="175" t="s">
+      <c r="M111" s="164"/>
+      <c r="N111" s="164"/>
+      <c r="O111" s="164"/>
+      <c r="P111" s="164" t="s">
         <v>67</v>
       </c>
-      <c r="Q111" s="175"/>
-      <c r="R111" s="175"/>
+      <c r="Q111" s="164"/>
+      <c r="R111" s="164"/>
     </row>
     <row r="112" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C112" s="15"/>
@@ -7114,12 +7113,12 @@
       <c r="C114" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="D114" s="176" t="s">
+      <c r="D114" s="165" t="s">
         <v>69</v>
       </c>
-      <c r="E114" s="176"/>
-      <c r="F114" s="176"/>
-      <c r="G114" s="176"/>
+      <c r="E114" s="165"/>
+      <c r="F114" s="165"/>
+      <c r="G114" s="165"/>
       <c r="H114" s="39" t="s">
         <v>70</v>
       </c>
@@ -7272,23 +7271,23 @@
       <c r="G120" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="H120" s="175" t="s">
+      <c r="H120" s="164" t="s">
         <v>65</v>
       </c>
-      <c r="I120" s="175"/>
-      <c r="J120" s="175"/>
-      <c r="K120" s="175"/>
-      <c r="L120" s="175" t="s">
+      <c r="I120" s="164"/>
+      <c r="J120" s="164"/>
+      <c r="K120" s="164"/>
+      <c r="L120" s="164" t="s">
         <v>154</v>
       </c>
-      <c r="M120" s="175"/>
-      <c r="N120" s="175"/>
-      <c r="O120" s="175"/>
-      <c r="P120" s="175" t="s">
+      <c r="M120" s="164"/>
+      <c r="N120" s="164"/>
+      <c r="O120" s="164"/>
+      <c r="P120" s="164" t="s">
         <v>67</v>
       </c>
-      <c r="Q120" s="175"/>
-      <c r="R120" s="175"/>
+      <c r="Q120" s="164"/>
+      <c r="R120" s="164"/>
     </row>
     <row r="121" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C121" s="15"/>
@@ -7350,12 +7349,12 @@
       <c r="C123" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="D123" s="176" t="s">
+      <c r="D123" s="165" t="s">
         <v>69</v>
       </c>
-      <c r="E123" s="176"/>
-      <c r="F123" s="176"/>
-      <c r="G123" s="176"/>
+      <c r="E123" s="165"/>
+      <c r="F123" s="165"/>
+      <c r="G123" s="165"/>
       <c r="H123" s="36" t="s">
         <v>70</v>
       </c>
@@ -7508,18 +7507,18 @@
       <c r="G129" s="104" t="s">
         <v>259</v>
       </c>
-      <c r="H129" s="161" t="s">
+      <c r="H129" s="174" t="s">
         <v>260</v>
       </c>
-      <c r="I129" s="161"/>
-      <c r="J129" s="161"/>
-      <c r="K129" s="161"/>
-      <c r="L129" s="161" t="s">
+      <c r="I129" s="174"/>
+      <c r="J129" s="174"/>
+      <c r="K129" s="174"/>
+      <c r="L129" s="174" t="s">
         <v>261</v>
       </c>
-      <c r="M129" s="161"/>
-      <c r="N129" s="161"/>
-      <c r="O129" s="161"/>
+      <c r="M129" s="174"/>
+      <c r="N129" s="174"/>
+      <c r="O129" s="174"/>
       <c r="P129" s="102" t="s">
         <v>262</v>
       </c>
@@ -7588,10 +7587,10 @@
     </row>
     <row r="132" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B132" s="106"/>
-      <c r="C132" s="162" t="s">
+      <c r="C132" s="175" t="s">
         <v>265</v>
       </c>
-      <c r="D132" s="163"/>
+      <c r="D132" s="176"/>
       <c r="E132" s="102" t="s">
         <v>266</v>
       </c>
@@ -7934,18 +7933,18 @@
       <c r="F144" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="G144" s="172" t="s">
+      <c r="G144" s="157" t="s">
         <v>198</v>
       </c>
-      <c r="H144" s="173"/>
-      <c r="I144" s="173"/>
-      <c r="J144" s="174"/>
-      <c r="K144" s="172" t="s">
+      <c r="H144" s="158"/>
+      <c r="I144" s="158"/>
+      <c r="J144" s="159"/>
+      <c r="K144" s="157" t="s">
         <v>204</v>
       </c>
-      <c r="L144" s="173"/>
-      <c r="M144" s="173"/>
-      <c r="N144" s="174"/>
+      <c r="L144" s="158"/>
+      <c r="M144" s="158"/>
+      <c r="N144" s="159"/>
       <c r="O144" s="62" t="s">
         <v>199</v>
       </c>
@@ -7967,6 +7966,21 @@
     <row r="150" s="28" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:O129"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
     <mergeCell ref="G144:J144"/>
     <mergeCell ref="K144:N144"/>
     <mergeCell ref="D23:G23"/>
@@ -7983,21 +7997,6 @@
     <mergeCell ref="L111:O111"/>
     <mergeCell ref="P111:R111"/>
     <mergeCell ref="D68:G68"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H129:K129"/>
-    <mergeCell ref="L129:O129"/>
-    <mergeCell ref="C132:D132"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/相关资料/01 通讯协议/航安LED灯具通讯协议-20180408.xlsx
+++ b/相关资料/01 通讯协议/航安LED灯具通讯协议-20180408.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5220"/>
   </bookViews>
   <sheets>
     <sheet name="驱动对照表" sheetId="3" r:id="rId1"/>
@@ -1407,7 +1407,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1.72/0.75</t>
+      <t>1.72</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2328,6 +2328,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2447,9 +2450,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2460,6 +2460,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2755,7 +2758,7 @@
   <dimension ref="A2:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2797,26 +2800,26 @@
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="35"/>
-      <c r="C7" s="155" t="s">
+      <c r="C7" s="156" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="152" t="s">
+      <c r="D7" s="153" t="s">
         <v>205</v>
       </c>
-      <c r="E7" s="152"/>
-      <c r="F7" s="152" t="s">
+      <c r="E7" s="153"/>
+      <c r="F7" s="153" t="s">
         <v>210</v>
       </c>
-      <c r="G7" s="152"/>
-      <c r="H7" s="153" t="s">
+      <c r="G7" s="153"/>
+      <c r="H7" s="154" t="s">
         <v>207</v>
       </c>
-      <c r="I7" s="150" t="s">
+      <c r="I7" s="151" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="156"/>
+      <c r="C8" s="157"/>
       <c r="D8" s="75" t="s">
         <v>111</v>
       </c>
@@ -2829,8 +2832,8 @@
       <c r="G8" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="154"/>
-      <c r="I8" s="151"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="152"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="74" t="s">
@@ -2890,18 +2893,18 @@
       <c r="H12" s="91" t="s">
         <v>218</v>
       </c>
-      <c r="I12" s="184" t="s">
+      <c r="I12" s="144" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="139" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="144" t="s">
+      <c r="C13" s="145" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="147">
+      <c r="D13" s="148">
         <v>5</v>
       </c>
-      <c r="E13" s="147">
+      <c r="E13" s="148">
         <v>6</v>
       </c>
       <c r="F13" s="89">
@@ -2918,9 +2921,9 @@
       </c>
     </row>
     <row r="14" spans="1:11" s="134" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="145"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="148"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="149"/>
       <c r="F14" s="89">
         <v>1</v>
       </c>
@@ -2935,9 +2938,9 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="146"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="149"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
       <c r="F15" s="141">
         <v>1</v>
       </c>
@@ -2985,13 +2988,13 @@
       <c r="I17" s="79"/>
     </row>
     <row r="18" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="144" t="s">
+      <c r="C18" s="145" t="s">
         <v>174</v>
       </c>
-      <c r="D18" s="147">
+      <c r="D18" s="148">
         <v>8</v>
       </c>
-      <c r="E18" s="147">
+      <c r="E18" s="148">
         <v>0</v>
       </c>
       <c r="F18" s="77">
@@ -3008,9 +3011,9 @@
       </c>
     </row>
     <row r="19" spans="3:9" s="110" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="146"/>
-      <c r="D19" s="149"/>
-      <c r="E19" s="149"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
       <c r="F19" s="119">
         <v>1</v>
       </c>
@@ -3097,13 +3100,13 @@
       <c r="I23" s="79"/>
     </row>
     <row r="24" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="144" t="s">
+      <c r="C24" s="145" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="147">
+      <c r="D24" s="148">
         <v>12</v>
       </c>
-      <c r="E24" s="147">
+      <c r="E24" s="148">
         <v>0</v>
       </c>
       <c r="F24" s="77">
@@ -3120,9 +3123,9 @@
       </c>
     </row>
     <row r="25" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="146"/>
-      <c r="D25" s="149"/>
-      <c r="E25" s="149"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
       <c r="F25" s="88">
         <v>1</v>
       </c>
@@ -3749,12 +3752,12 @@
       <c r="L14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="160" t="s">
+      <c r="M14" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="160"/>
-      <c r="O14" s="160"/>
-      <c r="P14" s="160"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="161"/>
+      <c r="P14" s="161"/>
       <c r="Q14" s="27" t="s">
         <v>284</v>
       </c>
@@ -3796,12 +3799,12 @@
       <c r="L15" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="M15" s="160" t="s">
+      <c r="M15" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="N15" s="160"/>
-      <c r="O15" s="160"/>
-      <c r="P15" s="160"/>
+      <c r="N15" s="161"/>
+      <c r="O15" s="161"/>
+      <c r="P15" s="161"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
     </row>
@@ -4044,12 +4047,12 @@
       <c r="C23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="160" t="s">
+      <c r="D23" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="161"/>
       <c r="H23" s="111" t="s">
         <v>284</v>
       </c>
@@ -4091,12 +4094,12 @@
       <c r="C24" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="161" t="s">
+      <c r="D24" s="162" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="162"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="163"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="164"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -4349,12 +4352,12 @@
       <c r="C32" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="166" t="s">
+      <c r="D32" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="166"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="167"/>
       <c r="H32" s="111" t="s">
         <v>284</v>
       </c>
@@ -4396,12 +4399,12 @@
       <c r="C33" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="167" t="s">
+      <c r="D33" s="168" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="168"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="169"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="169"/>
+      <c r="G33" s="170"/>
       <c r="H33" s="66"/>
       <c r="I33" s="66" t="s">
         <v>280</v>
@@ -4697,12 +4700,12 @@
       <c r="K41" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L41" s="161" t="s">
+      <c r="L41" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="M41" s="162"/>
-      <c r="N41" s="162"/>
-      <c r="O41" s="163"/>
+      <c r="M41" s="163"/>
+      <c r="N41" s="163"/>
+      <c r="O41" s="164"/>
       <c r="P41" s="30" t="s">
         <v>141</v>
       </c>
@@ -4744,12 +4747,12 @@
       <c r="K42" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="L42" s="161" t="s">
+      <c r="L42" s="162" t="s">
         <v>95</v>
       </c>
-      <c r="M42" s="162"/>
-      <c r="N42" s="162"/>
-      <c r="O42" s="163"/>
+      <c r="M42" s="163"/>
+      <c r="N42" s="163"/>
+      <c r="O42" s="164"/>
       <c r="P42" s="30" t="s">
         <v>132</v>
       </c>
@@ -5040,12 +5043,12 @@
       <c r="L50" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M50" s="160" t="s">
+      <c r="M50" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="N50" s="160"/>
-      <c r="O50" s="160"/>
-      <c r="P50" s="160"/>
+      <c r="N50" s="161"/>
+      <c r="O50" s="161"/>
+      <c r="P50" s="161"/>
       <c r="Q50" s="32" t="s">
         <v>140</v>
       </c>
@@ -5087,12 +5090,12 @@
       <c r="L51" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="M51" s="160" t="s">
+      <c r="M51" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="N51" s="160"/>
-      <c r="O51" s="160"/>
-      <c r="P51" s="160"/>
+      <c r="N51" s="161"/>
+      <c r="O51" s="161"/>
+      <c r="P51" s="161"/>
       <c r="Q51" s="32" t="s">
         <v>90</v>
       </c>
@@ -5338,12 +5341,12 @@
       <c r="C59" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="160" t="s">
+      <c r="D59" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="E59" s="160"/>
-      <c r="F59" s="160"/>
-      <c r="G59" s="160"/>
+      <c r="E59" s="161"/>
+      <c r="F59" s="161"/>
+      <c r="G59" s="161"/>
       <c r="H59" s="32" t="s">
         <v>147</v>
       </c>
@@ -5385,12 +5388,12 @@
       <c r="C60" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="D60" s="161" t="s">
+      <c r="D60" s="162" t="s">
         <v>105</v>
       </c>
-      <c r="E60" s="162"/>
-      <c r="F60" s="162"/>
-      <c r="G60" s="163"/>
+      <c r="E60" s="163"/>
+      <c r="F60" s="163"/>
+      <c r="G60" s="164"/>
       <c r="H60" s="32" t="s">
         <v>158</v>
       </c>
@@ -5647,12 +5650,12 @@
       <c r="C68" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="166" t="s">
+      <c r="D68" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="E68" s="166"/>
-      <c r="F68" s="166"/>
-      <c r="G68" s="166"/>
+      <c r="E68" s="167"/>
+      <c r="F68" s="167"/>
+      <c r="G68" s="167"/>
       <c r="H68" s="23" t="s">
         <v>196</v>
       </c>
@@ -5694,12 +5697,12 @@
       <c r="C69" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D69" s="167" t="s">
+      <c r="D69" s="168" t="s">
         <v>95</v>
       </c>
-      <c r="E69" s="168"/>
-      <c r="F69" s="168"/>
-      <c r="G69" s="169"/>
+      <c r="E69" s="169"/>
+      <c r="F69" s="169"/>
+      <c r="G69" s="170"/>
       <c r="H69" s="23" t="s">
         <v>88</v>
       </c>
@@ -5972,12 +5975,12 @@
       <c r="C78" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="166" t="s">
+      <c r="D78" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="E78" s="166"/>
-      <c r="F78" s="166"/>
-      <c r="G78" s="166"/>
+      <c r="E78" s="167"/>
+      <c r="F78" s="167"/>
+      <c r="G78" s="167"/>
       <c r="H78" s="86" t="s">
         <v>196</v>
       </c>
@@ -6019,12 +6022,12 @@
       <c r="C79" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="D79" s="167" t="s">
+      <c r="D79" s="168" t="s">
         <v>95</v>
       </c>
-      <c r="E79" s="168"/>
-      <c r="F79" s="168"/>
-      <c r="G79" s="169"/>
+      <c r="E79" s="169"/>
+      <c r="F79" s="169"/>
+      <c r="G79" s="170"/>
       <c r="H79" s="86" t="s">
         <v>88</v>
       </c>
@@ -6296,12 +6299,12 @@
       <c r="C87" s="115" t="s">
         <v>250</v>
       </c>
-      <c r="D87" s="170" t="s">
+      <c r="D87" s="171" t="s">
         <v>251</v>
       </c>
-      <c r="E87" s="170"/>
-      <c r="F87" s="170"/>
-      <c r="G87" s="170"/>
+      <c r="E87" s="171"/>
+      <c r="F87" s="171"/>
+      <c r="G87" s="171"/>
       <c r="H87" s="115" t="s">
         <v>252</v>
       </c>
@@ -6343,12 +6346,12 @@
       <c r="C88" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="D88" s="171" t="s">
+      <c r="D88" s="172" t="s">
         <v>249</v>
       </c>
-      <c r="E88" s="172"/>
-      <c r="F88" s="172"/>
-      <c r="G88" s="173"/>
+      <c r="E88" s="173"/>
+      <c r="F88" s="173"/>
+      <c r="G88" s="174"/>
       <c r="H88" s="115"/>
       <c r="I88" s="115"/>
       <c r="J88" s="115"/>
@@ -7034,23 +7037,23 @@
       <c r="G111" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H111" s="164" t="s">
+      <c r="H111" s="165" t="s">
         <v>65</v>
       </c>
-      <c r="I111" s="164"/>
-      <c r="J111" s="164"/>
-      <c r="K111" s="164"/>
-      <c r="L111" s="164" t="s">
+      <c r="I111" s="165"/>
+      <c r="J111" s="165"/>
+      <c r="K111" s="165"/>
+      <c r="L111" s="165" t="s">
         <v>66</v>
       </c>
-      <c r="M111" s="164"/>
-      <c r="N111" s="164"/>
-      <c r="O111" s="164"/>
-      <c r="P111" s="164" t="s">
+      <c r="M111" s="165"/>
+      <c r="N111" s="165"/>
+      <c r="O111" s="165"/>
+      <c r="P111" s="165" t="s">
         <v>67</v>
       </c>
-      <c r="Q111" s="164"/>
-      <c r="R111" s="164"/>
+      <c r="Q111" s="165"/>
+      <c r="R111" s="165"/>
     </row>
     <row r="112" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C112" s="15"/>
@@ -7113,12 +7116,12 @@
       <c r="C114" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="D114" s="165" t="s">
+      <c r="D114" s="166" t="s">
         <v>69</v>
       </c>
-      <c r="E114" s="165"/>
-      <c r="F114" s="165"/>
-      <c r="G114" s="165"/>
+      <c r="E114" s="166"/>
+      <c r="F114" s="166"/>
+      <c r="G114" s="166"/>
       <c r="H114" s="39" t="s">
         <v>70</v>
       </c>
@@ -7271,23 +7274,23 @@
       <c r="G120" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="H120" s="164" t="s">
+      <c r="H120" s="165" t="s">
         <v>65</v>
       </c>
-      <c r="I120" s="164"/>
-      <c r="J120" s="164"/>
-      <c r="K120" s="164"/>
-      <c r="L120" s="164" t="s">
+      <c r="I120" s="165"/>
+      <c r="J120" s="165"/>
+      <c r="K120" s="165"/>
+      <c r="L120" s="165" t="s">
         <v>154</v>
       </c>
-      <c r="M120" s="164"/>
-      <c r="N120" s="164"/>
-      <c r="O120" s="164"/>
-      <c r="P120" s="164" t="s">
+      <c r="M120" s="165"/>
+      <c r="N120" s="165"/>
+      <c r="O120" s="165"/>
+      <c r="P120" s="165" t="s">
         <v>67</v>
       </c>
-      <c r="Q120" s="164"/>
-      <c r="R120" s="164"/>
+      <c r="Q120" s="165"/>
+      <c r="R120" s="165"/>
     </row>
     <row r="121" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C121" s="15"/>
@@ -7349,12 +7352,12 @@
       <c r="C123" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="D123" s="165" t="s">
+      <c r="D123" s="166" t="s">
         <v>69</v>
       </c>
-      <c r="E123" s="165"/>
-      <c r="F123" s="165"/>
-      <c r="G123" s="165"/>
+      <c r="E123" s="166"/>
+      <c r="F123" s="166"/>
+      <c r="G123" s="166"/>
       <c r="H123" s="36" t="s">
         <v>70</v>
       </c>
@@ -7507,18 +7510,18 @@
       <c r="G129" s="104" t="s">
         <v>259</v>
       </c>
-      <c r="H129" s="174" t="s">
+      <c r="H129" s="175" t="s">
         <v>260</v>
       </c>
-      <c r="I129" s="174"/>
-      <c r="J129" s="174"/>
-      <c r="K129" s="174"/>
-      <c r="L129" s="174" t="s">
+      <c r="I129" s="175"/>
+      <c r="J129" s="175"/>
+      <c r="K129" s="175"/>
+      <c r="L129" s="175" t="s">
         <v>261</v>
       </c>
-      <c r="M129" s="174"/>
-      <c r="N129" s="174"/>
-      <c r="O129" s="174"/>
+      <c r="M129" s="175"/>
+      <c r="N129" s="175"/>
+      <c r="O129" s="175"/>
       <c r="P129" s="102" t="s">
         <v>262</v>
       </c>
@@ -7587,10 +7590,10 @@
     </row>
     <row r="132" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B132" s="106"/>
-      <c r="C132" s="175" t="s">
+      <c r="C132" s="176" t="s">
         <v>265</v>
       </c>
-      <c r="D132" s="176"/>
+      <c r="D132" s="177"/>
       <c r="E132" s="102" t="s">
         <v>266</v>
       </c>
@@ -7933,18 +7936,18 @@
       <c r="F144" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="G144" s="157" t="s">
+      <c r="G144" s="158" t="s">
         <v>198</v>
       </c>
-      <c r="H144" s="158"/>
-      <c r="I144" s="158"/>
-      <c r="J144" s="159"/>
-      <c r="K144" s="157" t="s">
+      <c r="H144" s="159"/>
+      <c r="I144" s="159"/>
+      <c r="J144" s="160"/>
+      <c r="K144" s="158" t="s">
         <v>204</v>
       </c>
-      <c r="L144" s="158"/>
-      <c r="M144" s="158"/>
-      <c r="N144" s="159"/>
+      <c r="L144" s="159"/>
+      <c r="M144" s="159"/>
+      <c r="N144" s="160"/>
       <c r="O144" s="62" t="s">
         <v>199</v>
       </c>
@@ -8024,27 +8027,27 @@
       <c r="B2" s="128" t="s">
         <v>285</v>
       </c>
-      <c r="C2" s="180" t="s">
+      <c r="C2" s="181" t="s">
         <v>286</v>
       </c>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
       <c r="H2" s="129" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="178" t="s">
         <v>307</v>
       </c>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="180"/>
     </row>
     <row r="4" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="123" t="s">
@@ -8277,15 +8280,15 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="181" t="s">
+      <c r="B14" s="182" t="s">
         <v>308</v>
       </c>
-      <c r="C14" s="182"/>
-      <c r="D14" s="182"/>
-      <c r="E14" s="182"/>
-      <c r="F14" s="182"/>
-      <c r="G14" s="182"/>
-      <c r="H14" s="183"/>
+      <c r="C14" s="183"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="183"/>
+      <c r="F14" s="183"/>
+      <c r="G14" s="183"/>
+      <c r="H14" s="184"/>
     </row>
     <row r="15" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="123" t="s">
@@ -8353,15 +8356,15 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="181" t="s">
+      <c r="B18" s="182" t="s">
         <v>309</v>
       </c>
-      <c r="C18" s="182"/>
-      <c r="D18" s="182"/>
-      <c r="E18" s="182"/>
-      <c r="F18" s="182"/>
-      <c r="G18" s="182"/>
-      <c r="H18" s="183"/>
+      <c r="C18" s="183"/>
+      <c r="D18" s="183"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="183"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="184"/>
     </row>
     <row r="19" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="125" t="s">
@@ -8490,15 +8493,15 @@
       </c>
     </row>
     <row r="25" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="177" t="s">
+      <c r="B25" s="178" t="s">
         <v>315</v>
       </c>
-      <c r="C25" s="178"/>
-      <c r="D25" s="178"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="179"/>
+      <c r="C25" s="179"/>
+      <c r="D25" s="179"/>
+      <c r="E25" s="179"/>
+      <c r="F25" s="179"/>
+      <c r="G25" s="179"/>
+      <c r="H25" s="180"/>
     </row>
     <row r="26" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="123" t="s">
